--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.232279978619317</v>
+        <v>2.232279978619374</v>
       </c>
       <c r="C3">
-        <v>0.7526372105953953</v>
+        <v>0.7526372105953669</v>
       </c>
       <c r="D3">
-        <v>0.03985177678809038</v>
+        <v>0.03985177678796248</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.185140603301363</v>
+        <v>2.185140603301349</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2465893215441071</v>
+        <v>0.2465893215441213</v>
       </c>
       <c r="L3">
-        <v>0.748750118543569</v>
+        <v>0.7487501185435903</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.014884100101398</v>
+        <v>2.014884100101483</v>
       </c>
       <c r="C4">
-        <v>0.6797214282838979</v>
+        <v>0.6797214282839263</v>
       </c>
       <c r="D4">
-        <v>0.03906290021393133</v>
+        <v>0.03906290021404502</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.170055015390545</v>
+        <v>1.17005501539056</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2241144277497753</v>
+        <v>0.224114427749754</v>
       </c>
       <c r="L4">
         <v>0.6760058356986818</v>
@@ -529,10 +529,10 @@
         <v>1.926978896394189</v>
       </c>
       <c r="C5">
-        <v>0.6502506067231479</v>
+        <v>0.6502506067230058</v>
       </c>
       <c r="D5">
-        <v>0.03876453577894168</v>
+        <v>0.03876453577925787</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.137906181104668</v>
+        <v>1.137906181104682</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2150905693001164</v>
+        <v>0.215090569300088</v>
       </c>
       <c r="L5">
-        <v>0.6466811402352022</v>
+        <v>0.6466811402352093</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.912420023620115</v>
+        <v>1.912420023620143</v>
       </c>
       <c r="C6">
-        <v>0.6453702729654651</v>
+        <v>0.6453702729656925</v>
       </c>
       <c r="D6">
-        <v>0.03871631051865165</v>
+        <v>0.03871631051865521</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.934638227115983</v>
+        <v>1.934638227115954</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.132608094137368</v>
+        <v>1.132608094137353</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2135997443354825</v>
+        <v>0.2135997443354967</v>
       </c>
       <c r="L6">
-        <v>0.6418295911743783</v>
+        <v>0.6418295911743712</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.013695972541797</v>
+        <v>2.013695972541711</v>
       </c>
       <c r="C7">
-        <v>0.6793230547055487</v>
+        <v>0.6793230547051223</v>
       </c>
       <c r="D7">
-        <v>0.03905878635233506</v>
+        <v>0.03905878635221072</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.169618696909438</v>
+        <v>1.169618696909424</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2239922086244022</v>
+        <v>0.2239922086243595</v>
       </c>
       <c r="L7">
-        <v>0.6756091279589782</v>
+        <v>0.6756091279589853</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.466977937476031</v>
+        <v>2.466977937475974</v>
       </c>
       <c r="C8">
-        <v>0.8314179639299084</v>
+        <v>0.8314179639299368</v>
       </c>
       <c r="D8">
-        <v>0.04078049954079432</v>
+        <v>0.04078049954067353</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.372061290008375</v>
+        <v>2.372061290008403</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2710903407784926</v>
+        <v>0.2710903407784571</v>
       </c>
       <c r="L8">
         <v>0.8276168074755361</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.388571194682186</v>
+        <v>3.38857119468247</v>
       </c>
       <c r="C9">
         <v>1.141570364137351</v>
       </c>
       <c r="D9">
-        <v>0.04512184317572832</v>
+        <v>0.04512184317585621</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.36940103329799</v>
       </c>
       <c r="L9">
-        <v>1.140240987882699</v>
+        <v>1.140240987882706</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.096597760414738</v>
+        <v>4.096597760414852</v>
       </c>
       <c r="C10">
-        <v>1.380898676726531</v>
+        <v>1.380898676726474</v>
       </c>
       <c r="D10">
-        <v>0.04913604376983471</v>
+        <v>0.04913604376995551</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.728057565227687</v>
+        <v>3.728057565227658</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.993739297837152</v>
+        <v>1.993739297837166</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4469360476825202</v>
+        <v>0.4469360476825415</v>
       </c>
       <c r="L10">
-        <v>1.383209571122819</v>
+        <v>1.383209571122805</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.42835032518002</v>
+        <v>4.428350325180077</v>
       </c>
       <c r="C11">
-        <v>1.493393491714016</v>
+        <v>1.493393491714301</v>
       </c>
       <c r="D11">
         <v>0.05120558642036599</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.133912804002847</v>
+        <v>2.133912804002833</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4838095577050225</v>
+        <v>0.4838095577050368</v>
       </c>
       <c r="L11">
-        <v>1.497807778009502</v>
+        <v>1.497807778009488</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.555658438524802</v>
+        <v>4.555658438524688</v>
       </c>
       <c r="C12">
-        <v>1.536626287378908</v>
+        <v>1.536626287378738</v>
       </c>
       <c r="D12">
-        <v>0.05203081350273919</v>
+        <v>0.05203081350300209</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.188256042202809</v>
+        <v>2.188256042202781</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4980477598258375</v>
+        <v>0.4980477598258304</v>
       </c>
       <c r="L12">
-        <v>1.541906029602202</v>
+        <v>1.541906029602217</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.528160476557161</v>
+        <v>4.528160476556991</v>
       </c>
       <c r="C13">
-        <v>1.527285164599675</v>
+        <v>1.527285164599391</v>
       </c>
       <c r="D13">
-        <v>0.05185112225099431</v>
+        <v>0.0518511222508522</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.176492715548918</v>
+        <v>2.176492715548932</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4949682883875681</v>
+        <v>0.494968288387561</v>
       </c>
       <c r="L13">
-        <v>1.532375372060287</v>
+        <v>1.532375372060315</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.438788525536552</v>
+        <v>4.438788525536665</v>
       </c>
       <c r="C14">
-        <v>1.496936873240202</v>
+        <v>1.496936873240656</v>
       </c>
       <c r="D14">
-        <v>0.05127260436182013</v>
+        <v>0.05127260436197645</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.023703166859718</v>
+        <v>4.023703166859661</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.138357143229925</v>
+        <v>2.138357143229882</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.484975150161965</v>
+        <v>0.4849751501619863</v>
       </c>
       <c r="L14">
-        <v>1.50142095174121</v>
+        <v>1.501420951741196</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.384273914020071</v>
+        <v>4.384273914020127</v>
       </c>
       <c r="C15">
-        <v>1.478433819022882</v>
+        <v>1.47843381902311</v>
       </c>
       <c r="D15">
-        <v>0.05092386812511762</v>
+        <v>0.0509238681246913</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.976377671413076</v>
+        <v>3.976377671413047</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4788913254436196</v>
+        <v>0.4788913254436125</v>
       </c>
       <c r="L15">
-        <v>1.482555747386783</v>
+        <v>1.482555747386712</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>4.075135272050431</v>
       </c>
       <c r="C16">
-        <v>1.373628981597562</v>
+        <v>1.373628981597903</v>
       </c>
       <c r="D16">
-        <v>0.04900622575744507</v>
+        <v>0.04900622575772928</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.709628603576533</v>
+        <v>3.709628603576505</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.984744196400854</v>
+        <v>1.984744196400811</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4445621714785375</v>
+        <v>0.444562171478573</v>
       </c>
       <c r="L16">
-        <v>1.375811804088841</v>
+        <v>1.375811804088826</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.888157380608732</v>
+        <v>3.888157380608675</v>
       </c>
       <c r="C17">
         <v>1.31033699362348</v>
       </c>
       <c r="D17">
-        <v>0.0478964695372639</v>
+        <v>0.04789646953705073</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.906767713435414</v>
+        <v>1.906767713435428</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4239423046613027</v>
+        <v>0.4239423046613098</v>
       </c>
       <c r="L17">
-        <v>1.31144800794155</v>
+        <v>1.311448007941536</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.781502748151809</v>
+        <v>3.781502748151752</v>
       </c>
       <c r="C18">
-        <v>1.274266431774095</v>
+        <v>1.274266431773867</v>
       </c>
       <c r="D18">
-        <v>0.04728063205177335</v>
+        <v>0.04728063205165967</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.458898224445079</v>
+        <v>3.458898224445051</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.862605653979372</v>
+        <v>1.862605653979358</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4122300805408514</v>
+        <v>0.4122300805408301</v>
       </c>
       <c r="L18">
         <v>1.27480278768256</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745536084241905</v>
+        <v>3.745536084241735</v>
       </c>
       <c r="C19">
-        <v>1.262107671793331</v>
+        <v>1.262107671793672</v>
       </c>
       <c r="D19">
-        <v>0.0470757975357543</v>
+        <v>0.04707579753596747</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.42836945698815</v>
+        <v>3.428369456988065</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.847765938198464</v>
+        <v>1.847765938198449</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4082886590557209</v>
+        <v>0.4082886590556996</v>
       </c>
       <c r="L19">
-        <v>1.262456505281705</v>
+        <v>1.262456505281719</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.907967416127974</v>
+        <v>3.907967416128145</v>
       </c>
       <c r="C20">
-        <v>1.317039280308848</v>
+        <v>1.317039280309359</v>
       </c>
       <c r="D20">
         <v>0.04801223624411222</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.566562213869446</v>
+        <v>3.566562213869418</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.914995950488631</v>
+        <v>1.914995950488617</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.426121729920709</v>
+        <v>0.4261217299206947</v>
       </c>
       <c r="L20">
-        <v>1.318260030156821</v>
+        <v>1.318260030156793</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.464991072060059</v>
+        <v>4.464991072060286</v>
       </c>
       <c r="C21">
         <v>1.505832720520402</v>
       </c>
       <c r="D21">
-        <v>0.05144134399861144</v>
+        <v>0.05144134399875355</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.149522538488853</v>
+        <v>2.149522538488867</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4879025218037185</v>
+        <v>0.4879025218037043</v>
       </c>
       <c r="L21">
-        <v>1.510492924218795</v>
+        <v>1.510492924218809</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.839005093212904</v>
+        <v>4.839005093212961</v>
       </c>
       <c r="C22">
-        <v>1.632978952546239</v>
+        <v>1.632978952546466</v>
       </c>
       <c r="D22">
-        <v>0.05392849032378422</v>
+        <v>0.05392849032385527</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.373678633932798</v>
+        <v>4.373678633932883</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5299090622766016</v>
+        <v>0.5299090622765945</v>
       </c>
       <c r="L22">
-        <v>1.640291288997346</v>
+        <v>1.640291288997332</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.6383659593061</v>
+        <v>4.63836595930627</v>
       </c>
       <c r="C23">
-        <v>1.564732407292013</v>
+        <v>1.564732407292411</v>
       </c>
       <c r="D23">
-        <v>0.05257606808542903</v>
+        <v>0.05257606808518034</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.223721137227599</v>
+        <v>2.223721137227614</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5073235837519618</v>
+        <v>0.5073235837519832</v>
       </c>
       <c r="L23">
         <v>1.57059065294311</v>
@@ -1254,13 +1254,13 @@
         <v>1.314008197829708</v>
       </c>
       <c r="D24">
-        <v>0.04795982951966238</v>
+        <v>0.04795982951986133</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.558919083464474</v>
+        <v>3.558919083464502</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0.4251359714457408</v>
       </c>
       <c r="L24">
-        <v>1.315179207209468</v>
+        <v>1.315179207209439</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>3.134708934746129</v>
       </c>
       <c r="C25">
-        <v>1.055993198122849</v>
+        <v>1.055993198123048</v>
       </c>
       <c r="D25">
-        <v>0.04382178082276056</v>
+        <v>0.04382178082273924</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.600011842133597</v>
+        <v>1.600011842133611</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.34200873986169</v>
+        <v>0.3420087398616971</v>
       </c>
       <c r="L25">
-        <v>1.053691126486356</v>
+        <v>1.053691126486385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.232279978619374</v>
+        <v>2.232279978619317</v>
       </c>
       <c r="C3">
-        <v>0.7526372105953669</v>
+        <v>0.7526372105953953</v>
       </c>
       <c r="D3">
-        <v>0.03985177678796248</v>
+        <v>0.03985177678809038</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.185140603301349</v>
+        <v>2.185140603301363</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2465893215441213</v>
+        <v>0.2465893215441071</v>
       </c>
       <c r="L3">
-        <v>0.7487501185435903</v>
+        <v>0.748750118543569</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.014884100101483</v>
+        <v>2.014884100101398</v>
       </c>
       <c r="C4">
-        <v>0.6797214282839263</v>
+        <v>0.6797214282838979</v>
       </c>
       <c r="D4">
-        <v>0.03906290021404502</v>
+        <v>0.03906290021393133</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.17005501539056</v>
+        <v>1.170055015390545</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.224114427749754</v>
+        <v>0.2241144277497753</v>
       </c>
       <c r="L4">
         <v>0.6760058356986818</v>
@@ -529,10 +529,10 @@
         <v>1.926978896394189</v>
       </c>
       <c r="C5">
-        <v>0.6502506067230058</v>
+        <v>0.6502506067231479</v>
       </c>
       <c r="D5">
-        <v>0.03876453577925787</v>
+        <v>0.03876453577894168</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.137906181104682</v>
+        <v>1.137906181104668</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.215090569300088</v>
+        <v>0.2150905693001164</v>
       </c>
       <c r="L5">
-        <v>0.6466811402352093</v>
+        <v>0.6466811402352022</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.912420023620143</v>
+        <v>1.912420023620115</v>
       </c>
       <c r="C6">
-        <v>0.6453702729656925</v>
+        <v>0.6453702729654651</v>
       </c>
       <c r="D6">
-        <v>0.03871631051865521</v>
+        <v>0.03871631051865165</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.934638227115954</v>
+        <v>1.934638227115983</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.132608094137353</v>
+        <v>1.132608094137368</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2135997443354967</v>
+        <v>0.2135997443354825</v>
       </c>
       <c r="L6">
-        <v>0.6418295911743712</v>
+        <v>0.6418295911743783</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.013695972541711</v>
+        <v>2.013695972541797</v>
       </c>
       <c r="C7">
-        <v>0.6793230547051223</v>
+        <v>0.6793230547055487</v>
       </c>
       <c r="D7">
-        <v>0.03905878635221072</v>
+        <v>0.03905878635233506</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.169618696909424</v>
+        <v>1.169618696909438</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2239922086243595</v>
+        <v>0.2239922086244022</v>
       </c>
       <c r="L7">
-        <v>0.6756091279589853</v>
+        <v>0.6756091279589782</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.466977937475974</v>
+        <v>2.466977937476031</v>
       </c>
       <c r="C8">
-        <v>0.8314179639299368</v>
+        <v>0.8314179639299084</v>
       </c>
       <c r="D8">
-        <v>0.04078049954067353</v>
+        <v>0.04078049954079432</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.372061290008403</v>
+        <v>2.372061290008375</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2710903407784571</v>
+        <v>0.2710903407784926</v>
       </c>
       <c r="L8">
         <v>0.8276168074755361</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.38857119468247</v>
+        <v>3.388571194682186</v>
       </c>
       <c r="C9">
         <v>1.141570364137351</v>
       </c>
       <c r="D9">
-        <v>0.04512184317585621</v>
+        <v>0.04512184317572832</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.36940103329799</v>
       </c>
       <c r="L9">
-        <v>1.140240987882706</v>
+        <v>1.140240987882699</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.096597760414852</v>
+        <v>4.096597760414738</v>
       </c>
       <c r="C10">
-        <v>1.380898676726474</v>
+        <v>1.380898676726531</v>
       </c>
       <c r="D10">
-        <v>0.04913604376995551</v>
+        <v>0.04913604376983471</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.728057565227658</v>
+        <v>3.728057565227687</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.993739297837166</v>
+        <v>1.993739297837152</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4469360476825415</v>
+        <v>0.4469360476825202</v>
       </c>
       <c r="L10">
-        <v>1.383209571122805</v>
+        <v>1.383209571122819</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.428350325180077</v>
+        <v>4.42835032518002</v>
       </c>
       <c r="C11">
-        <v>1.493393491714301</v>
+        <v>1.493393491714016</v>
       </c>
       <c r="D11">
         <v>0.05120558642036599</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.133912804002833</v>
+        <v>2.133912804002847</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4838095577050368</v>
+        <v>0.4838095577050225</v>
       </c>
       <c r="L11">
-        <v>1.497807778009488</v>
+        <v>1.497807778009502</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.555658438524688</v>
+        <v>4.555658438524802</v>
       </c>
       <c r="C12">
-        <v>1.536626287378738</v>
+        <v>1.536626287378908</v>
       </c>
       <c r="D12">
-        <v>0.05203081350300209</v>
+        <v>0.05203081350273919</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.188256042202781</v>
+        <v>2.188256042202809</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4980477598258304</v>
+        <v>0.4980477598258375</v>
       </c>
       <c r="L12">
-        <v>1.541906029602217</v>
+        <v>1.541906029602202</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.528160476556991</v>
+        <v>4.528160476557161</v>
       </c>
       <c r="C13">
-        <v>1.527285164599391</v>
+        <v>1.527285164599675</v>
       </c>
       <c r="D13">
-        <v>0.0518511222508522</v>
+        <v>0.05185112225099431</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.176492715548932</v>
+        <v>2.176492715548918</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.494968288387561</v>
+        <v>0.4949682883875681</v>
       </c>
       <c r="L13">
-        <v>1.532375372060315</v>
+        <v>1.532375372060287</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.438788525536665</v>
+        <v>4.438788525536552</v>
       </c>
       <c r="C14">
-        <v>1.496936873240656</v>
+        <v>1.496936873240202</v>
       </c>
       <c r="D14">
-        <v>0.05127260436197645</v>
+        <v>0.05127260436182013</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.023703166859661</v>
+        <v>4.023703166859718</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.138357143229882</v>
+        <v>2.138357143229925</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4849751501619863</v>
+        <v>0.484975150161965</v>
       </c>
       <c r="L14">
-        <v>1.501420951741196</v>
+        <v>1.50142095174121</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.384273914020127</v>
+        <v>4.384273914020071</v>
       </c>
       <c r="C15">
-        <v>1.47843381902311</v>
+        <v>1.478433819022882</v>
       </c>
       <c r="D15">
-        <v>0.0509238681246913</v>
+        <v>0.05092386812511762</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.976377671413047</v>
+        <v>3.976377671413076</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4788913254436125</v>
+        <v>0.4788913254436196</v>
       </c>
       <c r="L15">
-        <v>1.482555747386712</v>
+        <v>1.482555747386783</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>4.075135272050431</v>
       </c>
       <c r="C16">
-        <v>1.373628981597903</v>
+        <v>1.373628981597562</v>
       </c>
       <c r="D16">
-        <v>0.04900622575772928</v>
+        <v>0.04900622575744507</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.709628603576505</v>
+        <v>3.709628603576533</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.984744196400811</v>
+        <v>1.984744196400854</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.444562171478573</v>
+        <v>0.4445621714785375</v>
       </c>
       <c r="L16">
-        <v>1.375811804088826</v>
+        <v>1.375811804088841</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.888157380608675</v>
+        <v>3.888157380608732</v>
       </c>
       <c r="C17">
         <v>1.31033699362348</v>
       </c>
       <c r="D17">
-        <v>0.04789646953705073</v>
+        <v>0.0478964695372639</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.906767713435428</v>
+        <v>1.906767713435414</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4239423046613098</v>
+        <v>0.4239423046613027</v>
       </c>
       <c r="L17">
-        <v>1.311448007941536</v>
+        <v>1.31144800794155</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.781502748151752</v>
+        <v>3.781502748151809</v>
       </c>
       <c r="C18">
-        <v>1.274266431773867</v>
+        <v>1.274266431774095</v>
       </c>
       <c r="D18">
-        <v>0.04728063205165967</v>
+        <v>0.04728063205177335</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.458898224445051</v>
+        <v>3.458898224445079</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.862605653979358</v>
+        <v>1.862605653979372</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4122300805408301</v>
+        <v>0.4122300805408514</v>
       </c>
       <c r="L18">
         <v>1.27480278768256</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745536084241735</v>
+        <v>3.745536084241905</v>
       </c>
       <c r="C19">
-        <v>1.262107671793672</v>
+        <v>1.262107671793331</v>
       </c>
       <c r="D19">
-        <v>0.04707579753596747</v>
+        <v>0.0470757975357543</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.428369456988065</v>
+        <v>3.42836945698815</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.847765938198449</v>
+        <v>1.847765938198464</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4082886590556996</v>
+        <v>0.4082886590557209</v>
       </c>
       <c r="L19">
-        <v>1.262456505281719</v>
+        <v>1.262456505281705</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.907967416128145</v>
+        <v>3.907967416127974</v>
       </c>
       <c r="C20">
-        <v>1.317039280309359</v>
+        <v>1.317039280308848</v>
       </c>
       <c r="D20">
         <v>0.04801223624411222</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.566562213869418</v>
+        <v>3.566562213869446</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.914995950488617</v>
+        <v>1.914995950488631</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4261217299206947</v>
+        <v>0.426121729920709</v>
       </c>
       <c r="L20">
-        <v>1.318260030156793</v>
+        <v>1.318260030156821</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.464991072060286</v>
+        <v>4.464991072060059</v>
       </c>
       <c r="C21">
         <v>1.505832720520402</v>
       </c>
       <c r="D21">
-        <v>0.05144134399875355</v>
+        <v>0.05144134399861144</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.149522538488867</v>
+        <v>2.149522538488853</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4879025218037043</v>
+        <v>0.4879025218037185</v>
       </c>
       <c r="L21">
-        <v>1.510492924218809</v>
+        <v>1.510492924218795</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.839005093212961</v>
+        <v>4.839005093212904</v>
       </c>
       <c r="C22">
-        <v>1.632978952546466</v>
+        <v>1.632978952546239</v>
       </c>
       <c r="D22">
-        <v>0.05392849032385527</v>
+        <v>0.05392849032378422</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.373678633932883</v>
+        <v>4.373678633932798</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5299090622765945</v>
+        <v>0.5299090622766016</v>
       </c>
       <c r="L22">
-        <v>1.640291288997332</v>
+        <v>1.640291288997346</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.63836595930627</v>
+        <v>4.6383659593061</v>
       </c>
       <c r="C23">
-        <v>1.564732407292411</v>
+        <v>1.564732407292013</v>
       </c>
       <c r="D23">
-        <v>0.05257606808518034</v>
+        <v>0.05257606808542903</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.223721137227614</v>
+        <v>2.223721137227599</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5073235837519832</v>
+        <v>0.5073235837519618</v>
       </c>
       <c r="L23">
         <v>1.57059065294311</v>
@@ -1254,13 +1254,13 @@
         <v>1.314008197829708</v>
       </c>
       <c r="D24">
-        <v>0.04795982951986133</v>
+        <v>0.04795982951966238</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.558919083464502</v>
+        <v>3.558919083464474</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0.4251359714457408</v>
       </c>
       <c r="L24">
-        <v>1.315179207209439</v>
+        <v>1.315179207209468</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>3.134708934746129</v>
       </c>
       <c r="C25">
-        <v>1.055993198123048</v>
+        <v>1.055993198122849</v>
       </c>
       <c r="D25">
-        <v>0.04382178082273924</v>
+        <v>0.04382178082276056</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.600011842133611</v>
+        <v>1.600011842133597</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3420087398616971</v>
+        <v>0.34200873986169</v>
       </c>
       <c r="L25">
-        <v>1.053691126486385</v>
+        <v>1.053691126486356</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.591650153205819</v>
+        <v>2.568851892540181</v>
       </c>
       <c r="C2">
-        <v>0.8732963952461148</v>
+        <v>0.8584598735096165</v>
       </c>
       <c r="D2">
-        <v>0.04130470076599835</v>
+        <v>0.0438183527254381</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.47233649683217</v>
+        <v>2.482405182171917</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007747151882903457</v>
       </c>
       <c r="H2">
-        <v>1.387149305709713</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.398699314433486</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2841996913261724</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8696430732931262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2832417861953545</v>
+      </c>
+      <c r="M2">
+        <v>0.8662649604900068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.232279978619317</v>
+        <v>2.212559696142421</v>
       </c>
       <c r="C3">
-        <v>0.7526372105953953</v>
+        <v>0.7393045076543103</v>
       </c>
       <c r="D3">
-        <v>0.03985177678809038</v>
+        <v>0.04252476012723605</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.185140603301363</v>
+        <v>2.198931743314887</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007838789594572163</v>
       </c>
       <c r="H3">
-        <v>1.250680177464318</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.2642274618578</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2465893215441071</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.748750118543569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2456556543700046</v>
+      </c>
+      <c r="M3">
+        <v>0.7460269010824945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.014884100101398</v>
+        <v>1.997053766785484</v>
       </c>
       <c r="C4">
-        <v>0.6797214282838979</v>
+        <v>0.667313488069027</v>
       </c>
       <c r="D4">
-        <v>0.03906290021393133</v>
+        <v>0.04183362452200967</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.014316936719538</v>
+        <v>2.030380384962839</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007896366735009656</v>
       </c>
       <c r="H4">
-        <v>1.170055015390545</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.184820305308747</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2241144277497753</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6760058356986818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2231901669093332</v>
+      </c>
+      <c r="M4">
+        <v>0.6736767572320232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.926978896394189</v>
+        <v>1.909920523230738</v>
       </c>
       <c r="C5">
-        <v>0.6502506067231479</v>
+        <v>0.6382207060639473</v>
       </c>
       <c r="D5">
-        <v>0.03876453577894168</v>
+        <v>0.04157514737552859</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.945925441778357</v>
+        <v>1.962913898218687</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007920181461450053</v>
       </c>
       <c r="H5">
-        <v>1.137906181104668</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.15316701689828</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2150905693001164</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6466811402352022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2141689186507136</v>
+      </c>
+      <c r="M5">
+        <v>0.644511238184748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.912420023620115</v>
+        <v>1.89548998966896</v>
       </c>
       <c r="C6">
-        <v>0.6453702729654651</v>
+        <v>0.6334032399317664</v>
       </c>
       <c r="D6">
-        <v>0.03871631051865165</v>
+        <v>0.04153355096415368</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.934638227115983</v>
+        <v>1.951780285283121</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007924157716252558</v>
       </c>
       <c r="H6">
-        <v>1.132608094137368</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.147951201409384</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2135997443354825</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6418295911743783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2126784573150786</v>
+      </c>
+      <c r="M6">
+        <v>0.6396860484758236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.013695972541797</v>
+        <v>1.995876040716723</v>
       </c>
       <c r="C7">
-        <v>0.6793230547055487</v>
+        <v>0.6669202070106621</v>
       </c>
       <c r="D7">
-        <v>0.03905878635233506</v>
+        <v>0.04183004826497339</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.013389852029803</v>
+        <v>2.029465776289385</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007896686457489265</v>
       </c>
       <c r="H7">
-        <v>1.169618696909438</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.184390671581241</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2239922086244022</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6756091279589782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2230679877507171</v>
+      </c>
+      <c r="M7">
+        <v>0.6732822013328104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.466977937476031</v>
+        <v>2.44524209586308</v>
       </c>
       <c r="C8">
-        <v>0.8314179639299084</v>
+        <v>0.817100203748879</v>
       </c>
       <c r="D8">
-        <v>0.04078049954079432</v>
+        <v>0.04334915837471343</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.372061290008375</v>
+        <v>2.383417758032124</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000777849022417468</v>
       </c>
       <c r="H8">
-        <v>1.339380515127303</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.351621744145277</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2710903407784926</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8276168074755361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2701420297234023</v>
+      </c>
+      <c r="M8">
+        <v>0.8244665223750758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.388571194682186</v>
+        <v>3.359062181597153</v>
       </c>
       <c r="C9">
-        <v>1.141570364137351</v>
+        <v>1.12346433319064</v>
       </c>
       <c r="D9">
-        <v>0.04512184317572832</v>
+        <v>0.04728831864098026</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.127629298271074</v>
+        <v>3.129500232850006</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007556005870215878</v>
       </c>
       <c r="H9">
-        <v>1.701973888677429</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.709117896551732</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.36940103329799</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.140240987882699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3683536063475188</v>
+      </c>
+      <c r="M9">
+        <v>1.135382475025068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.096597760414738</v>
+        <v>4.061160482962293</v>
       </c>
       <c r="C10">
-        <v>1.380898676726531</v>
+        <v>1.359914522095949</v>
       </c>
       <c r="D10">
-        <v>0.04913604376983471</v>
+        <v>0.05099711468803036</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.728057565227687</v>
+        <v>3.722608398062988</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007396457793060648</v>
       </c>
       <c r="H10">
-        <v>1.993739297837152</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.996941680662843</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4469360476825202</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.383209571122819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4457694458299741</v>
+      </c>
+      <c r="M10">
+        <v>1.376986946991309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.42835032518002</v>
+        <v>4.390122781877608</v>
       </c>
       <c r="C11">
-        <v>1.493393491714016</v>
+        <v>1.471057965152113</v>
       </c>
       <c r="D11">
-        <v>0.05120558642036599</v>
+        <v>0.05292360386276584</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.014634975500911</v>
+        <v>4.005719205577947</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007324259934812713</v>
       </c>
       <c r="H11">
-        <v>2.133912804002847</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.135246509459279</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4838095577050225</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.497807778009502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4825742396159072</v>
+      </c>
+      <c r="M11">
+        <v>1.490925667308801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.555658438524802</v>
+        <v>4.516355927853795</v>
       </c>
       <c r="C12">
-        <v>1.536626287378908</v>
+        <v>1.51377069932721</v>
       </c>
       <c r="D12">
-        <v>0.05203081350273919</v>
+        <v>0.05369386146443134</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.125443500894789</v>
+        <v>4.115188972548054</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000729692948332803</v>
       </c>
       <c r="H12">
-        <v>2.188256042202809</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.188867775082102</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4980477598258375</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.541906029602202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4967838449998823</v>
+      </c>
+      <c r="M12">
+        <v>1.534766941929917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.528160476557161</v>
+        <v>4.489090385810925</v>
       </c>
       <c r="C13">
-        <v>1.527285164599675</v>
+        <v>1.504541993024475</v>
       </c>
       <c r="D13">
-        <v>0.05185112225099431</v>
+        <v>0.05352604811125161</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.101470870575753</v>
+        <v>4.091505942311414</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007302815973152848</v>
       </c>
       <c r="H13">
-        <v>2.176492715548918</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.1772606396447</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4949682883875681</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.532375372060287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4937106560601165</v>
+      </c>
+      <c r="M13">
+        <v>1.525291981480876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.438788525536552</v>
+        <v>4.400472943943896</v>
       </c>
       <c r="C14">
-        <v>1.496936873240202</v>
+        <v>1.474558742585714</v>
       </c>
       <c r="D14">
-        <v>0.05127260436182013</v>
+        <v>0.05298611675977583</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.023703166859718</v>
+        <v>4.014677819727467</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007322011542664449</v>
       </c>
       <c r="H14">
-        <v>2.138357143229925</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.139631761662528</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.484975150161965</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.50142095174121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4837375342636747</v>
+      </c>
+      <c r="M14">
+        <v>1.494517855353521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.384273914020071</v>
+        <v>4.346417936346825</v>
       </c>
       <c r="C15">
-        <v>1.478433819022882</v>
+        <v>1.456278126210634</v>
       </c>
       <c r="D15">
-        <v>0.05092386812511762</v>
+        <v>0.05266090511433674</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.976377671413076</v>
+        <v>3.967924241756066</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007333769119959797</v>
       </c>
       <c r="H15">
-        <v>2.11516863907805</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.116751638381004</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4788913254436196</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.482555747386783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4776656181673147</v>
+      </c>
+      <c r="M15">
+        <v>1.475762087763684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.075135272050431</v>
+        <v>4.039878068147459</v>
       </c>
       <c r="C16">
-        <v>1.373628981597562</v>
+        <v>1.352732111829766</v>
       </c>
       <c r="D16">
-        <v>0.04900622575744507</v>
+        <v>0.05087654597490854</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.709628603576533</v>
+        <v>3.704402722311414</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007401180033389654</v>
       </c>
       <c r="H16">
-        <v>1.984744196400854</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.988066899912312</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4445621714785375</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.375811804088841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.443399729360749</v>
+      </c>
+      <c r="M16">
+        <v>1.369631363161702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.888157380608732</v>
+        <v>3.854467327089253</v>
       </c>
       <c r="C17">
-        <v>1.31033699362348</v>
+        <v>1.290200118594385</v>
       </c>
       <c r="D17">
-        <v>0.0478964695372639</v>
+        <v>0.04984736518923683</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.549664577144853</v>
+        <v>3.546379562773978</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007442601878865321</v>
       </c>
       <c r="H17">
-        <v>1.906767713435414</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.911136055167844</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4239423046613027</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.31144800794155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4228146465454259</v>
+      </c>
+      <c r="M17">
+        <v>1.305632725198549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.781502748151809</v>
+        <v>3.748705629637811</v>
       </c>
       <c r="C18">
-        <v>1.274266431774095</v>
+        <v>1.254562884250333</v>
       </c>
       <c r="D18">
-        <v>0.04728063205177335</v>
+        <v>0.0492774989106195</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.458898224445079</v>
+        <v>3.456717135256127</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000746646562910627</v>
       </c>
       <c r="H18">
-        <v>1.862605653979372</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.867568548104202</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4122300805408514</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.27480278768256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4111210995970609</v>
+      </c>
+      <c r="M18">
+        <v>1.269193986086364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745536084241905</v>
+        <v>3.713039980065389</v>
       </c>
       <c r="C19">
-        <v>1.262107671793331</v>
+        <v>1.24255025021148</v>
       </c>
       <c r="D19">
-        <v>0.0470757975357543</v>
+        <v>0.04908817087635242</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.42836945698815</v>
+        <v>3.42656017949426</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007474553458170405</v>
       </c>
       <c r="H19">
-        <v>1.847765938198464</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.852929051634291</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4082886590557209</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.262456505281705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4071857865607953</v>
+      </c>
+      <c r="M19">
+        <v>1.256917049459688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.907967416127974</v>
+        <v>3.874111443392962</v>
       </c>
       <c r="C20">
-        <v>1.317039280308848</v>
+        <v>1.296821910899837</v>
       </c>
       <c r="D20">
-        <v>0.04801223624411222</v>
+        <v>0.04995459453049023</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.566562213869446</v>
+        <v>3.563071917255769</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007438188723402116</v>
       </c>
       <c r="H20">
-        <v>1.914995950488631</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.919253716209994</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.426121729920709</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.318260030156821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4249905097769684</v>
+      </c>
+      <c r="M20">
+        <v>1.312406253656988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.464991072060059</v>
+        <v>4.426454415609214</v>
       </c>
       <c r="C21">
-        <v>1.505832720520402</v>
+        <v>1.483347615080504</v>
       </c>
       <c r="D21">
-        <v>0.05144134399861144</v>
+        <v>0.05314354610965921</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.046480216609012</v>
+        <v>4.037179656025188</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007316373484882326</v>
       </c>
       <c r="H21">
-        <v>2.149522538488853</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.150648749283661</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4879025218037185</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.510492924218795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.4866591010093941</v>
+      </c>
+      <c r="M21">
+        <v>1.503537082663456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.839005093212904</v>
+        <v>4.797299220995114</v>
       </c>
       <c r="C22">
-        <v>1.632978952546239</v>
+        <v>1.608961774333238</v>
       </c>
       <c r="D22">
-        <v>0.05392849032378422</v>
+        <v>0.05546895507466587</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.373678633932798</v>
+        <v>4.360424951855009</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007236787798172717</v>
       </c>
       <c r="H22">
-        <v>2.310271009459555</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.309264753418859</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5299090622766016</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.640291288997346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5285769766938131</v>
+      </c>
+      <c r="M22">
+        <v>1.632571899772501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.6383659593061</v>
+        <v>4.598363559579582</v>
       </c>
       <c r="C23">
-        <v>1.564732407292013</v>
+        <v>1.541538386903767</v>
       </c>
       <c r="D23">
-        <v>0.05257606808542903</v>
+        <v>0.05420337229156047</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.197674360328477</v>
+        <v>4.186547280808242</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007279278661820321</v>
       </c>
       <c r="H23">
-        <v>2.223721137227599</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.22386222705012</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5073235837519618</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.57059065294311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5060404193884978</v>
+      </c>
+      <c r="M23">
+        <v>1.563283393148154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.899008699443129</v>
+        <v>3.865227763475559</v>
       </c>
       <c r="C24">
-        <v>1.314008197829708</v>
+        <v>1.293827230990757</v>
       </c>
       <c r="D24">
-        <v>0.04795982951966238</v>
+        <v>0.04990604863288439</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.558919083464474</v>
+        <v>3.555521631572702</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007440183752388626</v>
       </c>
       <c r="H24">
-        <v>1.911273898971672</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.915581676410511</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4251359714457408</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.315179207209468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4240063657731667</v>
+      </c>
+      <c r="M24">
+        <v>1.30934284437464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.134708934746129</v>
+        <v>3.107327584270649</v>
       </c>
       <c r="C25">
-        <v>1.055993198122849</v>
+        <v>1.038922440611543</v>
       </c>
       <c r="D25">
-        <v>0.04382178082276056</v>
+        <v>0.04609822581306844</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.916354247320015</v>
+        <v>2.920835427043244</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000761536620727989</v>
       </c>
       <c r="H25">
-        <v>1.600011842133597</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.608559791493079</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.34200873986169</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.053691126486356</v>
+        <v>0.3409950122530958</v>
+      </c>
+      <c r="M25">
+        <v>1.049309518810325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.568851892540181</v>
+        <v>2.252950323270966</v>
       </c>
       <c r="C2">
-        <v>0.8584598735096165</v>
+        <v>0.5033630352634475</v>
       </c>
       <c r="D2">
-        <v>0.0438183527254381</v>
+        <v>0.02432874669183249</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.482405182171917</v>
+        <v>0.8138735459519637</v>
       </c>
       <c r="G2">
-        <v>0.0007747151882903457</v>
+        <v>0.0007845352265797354</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.398699314433486</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6150439831171681</v>
       </c>
       <c r="L2">
-        <v>0.2832417861953545</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8662649604900068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5684278253462445</v>
+      </c>
+      <c r="O2">
+        <v>0.5737184256001697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.212559696142421</v>
+        <v>1.950492600847127</v>
       </c>
       <c r="C3">
-        <v>0.7393045076543103</v>
+        <v>0.4373583114639814</v>
       </c>
       <c r="D3">
-        <v>0.04252476012723605</v>
+        <v>0.02348381050686399</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.198931743314887</v>
+        <v>0.7406420511117773</v>
       </c>
       <c r="G3">
-        <v>0.0007838789594572163</v>
+        <v>0.000790308801703782</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.2642274618578</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5324370684091448</v>
       </c>
       <c r="L3">
-        <v>0.2456556543700046</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7460269010824945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.6110112372181913</v>
+      </c>
+      <c r="O3">
+        <v>0.5291127722461724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.997053766785484</v>
+        <v>1.766239106249316</v>
       </c>
       <c r="C4">
-        <v>0.667313488069027</v>
+        <v>0.3970608887421179</v>
       </c>
       <c r="D4">
-        <v>0.04183362452200967</v>
+        <v>0.02297352007216702</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.030380384962839</v>
+        <v>0.6978029212093659</v>
       </c>
       <c r="G4">
-        <v>0.0007896366735009656</v>
+        <v>0.0007939590416918417</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.184820305308747</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4820825785761187</v>
       </c>
       <c r="L4">
-        <v>0.2231901669093332</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6736767572320232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.6384494618700405</v>
+      </c>
+      <c r="O4">
+        <v>0.5034044027361944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.909920523230738</v>
+        <v>1.691462767816461</v>
       </c>
       <c r="C5">
-        <v>0.6382207060639473</v>
+        <v>0.380684723958808</v>
       </c>
       <c r="D5">
-        <v>0.04157514737552859</v>
+        <v>0.02276753154188071</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.962913898218687</v>
+        <v>0.6808366118800109</v>
       </c>
       <c r="G5">
-        <v>0.0007920181461450053</v>
+        <v>0.0007954737794739617</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.15316701689828</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4616391673464406</v>
       </c>
       <c r="L5">
-        <v>0.2141689186507136</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.644511238184748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.6499437727655231</v>
+      </c>
+      <c r="O5">
+        <v>0.4933173258343047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.89548998966896</v>
+        <v>1.679063226246399</v>
       </c>
       <c r="C6">
-        <v>0.6334032399317664</v>
+        <v>0.3779678679444771</v>
       </c>
       <c r="D6">
-        <v>0.04153355096415368</v>
+        <v>0.02273344079605977</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.951780285283121</v>
+        <v>0.6780478058621711</v>
       </c>
       <c r="G6">
-        <v>0.0007924157716252558</v>
+        <v>0.0007957269671802109</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.147951201409384</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4582487332124217</v>
       </c>
       <c r="L6">
-        <v>0.2126784573150786</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6396860484758236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.6518709681619761</v>
+      </c>
+      <c r="O6">
+        <v>0.4916649599779888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.995876040716723</v>
+        <v>1.76522947111792</v>
       </c>
       <c r="C7">
-        <v>0.6669202070106621</v>
+        <v>0.3968398661511401</v>
       </c>
       <c r="D7">
-        <v>0.04183004826497339</v>
+        <v>0.02297073432810848</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.029465776289385</v>
+        <v>0.6975721750453303</v>
       </c>
       <c r="G7">
-        <v>0.0007896686457489265</v>
+        <v>0.0007939793586960745</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.184390671581241</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.481806582011572</v>
       </c>
       <c r="L7">
-        <v>0.2230679877507171</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6732822013328104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.6386032258605354</v>
+      </c>
+      <c r="O7">
+        <v>0.5032668308231862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.44524209586308</v>
+        <v>2.148324401472451</v>
       </c>
       <c r="C8">
-        <v>0.817100203748879</v>
+        <v>0.4805491563053579</v>
       </c>
       <c r="D8">
-        <v>0.04334915837471343</v>
+        <v>0.02403553238319134</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.383417758032124</v>
+        <v>0.7881551685737946</v>
       </c>
       <c r="G8">
-        <v>0.000777849022417468</v>
+        <v>0.0007865045919546496</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.351621744145277</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5864752385367922</v>
       </c>
       <c r="L8">
-        <v>0.2701420297234023</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8244665223750758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.5828351070126132</v>
+      </c>
+      <c r="O8">
+        <v>0.5579691778842815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359062181597153</v>
+        <v>2.913986123141342</v>
       </c>
       <c r="C9">
-        <v>1.12346433319064</v>
+        <v>0.6471408461315775</v>
       </c>
       <c r="D9">
-        <v>0.04728831864098026</v>
+        <v>0.02620054433508656</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.129500232850006</v>
+        <v>0.9847700678443658</v>
       </c>
       <c r="G9">
-        <v>0.0007556005870215878</v>
+        <v>0.0007726440793644268</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.709117896551732</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.79541383822</v>
       </c>
       <c r="L9">
-        <v>0.3683536063475188</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.135382475025068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.4842959047222877</v>
+      </c>
+      <c r="O9">
+        <v>0.680180955162129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.061160482962293</v>
+        <v>3.48967685619607</v>
       </c>
       <c r="C10">
-        <v>1.359914522095949</v>
+        <v>0.7719690853894861</v>
       </c>
       <c r="D10">
-        <v>0.05099711468803036</v>
+        <v>0.02785359948989807</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.722608398062988</v>
+        <v>1.144006991748327</v>
       </c>
       <c r="G10">
-        <v>0.0007396457793060648</v>
+        <v>0.0007628901340751885</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.996941680662843</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9523562226986826</v>
       </c>
       <c r="L10">
-        <v>0.4457694458299741</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.376986946991309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.4193558804614614</v>
+      </c>
+      <c r="O10">
+        <v>0.7815244827091306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.390122781877608</v>
+        <v>3.755514029343033</v>
       </c>
       <c r="C11">
-        <v>1.471057965152113</v>
+        <v>0.8295214380429456</v>
       </c>
       <c r="D11">
-        <v>0.05292360386276584</v>
+        <v>0.02862333420786101</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.005719205577947</v>
+        <v>1.220451436419097</v>
       </c>
       <c r="G11">
-        <v>0.0007324259934812713</v>
+        <v>0.0007585321547775402</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.135246509459279</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.024794525062902</v>
       </c>
       <c r="L11">
-        <v>0.4825742396159072</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.490925667308801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.3916443617384271</v>
+      </c>
+      <c r="O11">
+        <v>0.8307421714621057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.516355927853795</v>
+        <v>3.856847610735599</v>
       </c>
       <c r="C12">
-        <v>1.51377069932721</v>
+        <v>0.8514472410831218</v>
       </c>
       <c r="D12">
-        <v>0.05369386146443134</v>
+        <v>0.0289177729492458</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.115188972548054</v>
+        <v>1.250048602932452</v>
       </c>
       <c r="G12">
-        <v>0.000729692948332803</v>
+        <v>0.0007568920147873355</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.188867775082102</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.052402398113941</v>
       </c>
       <c r="L12">
-        <v>0.4967838449998823</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.534766941929917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.3814337819207498</v>
+      </c>
+      <c r="O12">
+        <v>0.8498838589614905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.489090385810925</v>
+        <v>3.834992279632445</v>
       </c>
       <c r="C13">
-        <v>1.504541993024475</v>
+        <v>0.84671888819841</v>
       </c>
       <c r="D13">
-        <v>0.05352604811125161</v>
+        <v>0.02885422171238972</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.091505942311414</v>
+        <v>1.243644201869685</v>
       </c>
       <c r="G13">
-        <v>0.0007302815973152848</v>
+        <v>0.0007572448187855702</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.1772606396447</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.046448216371786</v>
       </c>
       <c r="L13">
-        <v>0.4937106560601165</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.525291981480876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.3836198790824401</v>
+      </c>
+      <c r="O13">
+        <v>0.8457379864183991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.400472943943896</v>
+        <v>3.763836840752617</v>
       </c>
       <c r="C14">
-        <v>1.474558742585714</v>
+        <v>0.83132250993296</v>
       </c>
       <c r="D14">
-        <v>0.05298611675977583</v>
+        <v>0.02864749607174844</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.014677819727467</v>
+        <v>1.22287295485701</v>
       </c>
       <c r="G14">
-        <v>0.0007322011542664449</v>
+        <v>0.0007583970239436577</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.139631761662528</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.027062129094617</v>
       </c>
       <c r="L14">
-        <v>0.4837375342636747</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.494517855353521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.3907985343791047</v>
+      </c>
+      <c r="O14">
+        <v>0.8323065278295303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.346417936346825</v>
+        <v>3.720342009567958</v>
       </c>
       <c r="C15">
-        <v>1.456278126210634</v>
+        <v>0.8219096520282676</v>
       </c>
       <c r="D15">
-        <v>0.05266090511433674</v>
+        <v>0.02852126873415273</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.967924241756066</v>
+        <v>1.210236821330554</v>
       </c>
       <c r="G15">
-        <v>0.0007333769119959797</v>
+        <v>0.0007591040633419735</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.116751638381004</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.015211493708662</v>
       </c>
       <c r="L15">
-        <v>0.4776656181673147</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.475762087763684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.3952331726794149</v>
+      </c>
+      <c r="O15">
+        <v>0.8241467656133494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.039878068147459</v>
+        <v>3.472391500318736</v>
       </c>
       <c r="C16">
-        <v>1.352732111829766</v>
+        <v>0.7682251427483209</v>
       </c>
       <c r="D16">
-        <v>0.05087654597490854</v>
+        <v>0.02780368595876226</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.704402722311414</v>
+        <v>1.139097883913678</v>
       </c>
       <c r="G16">
-        <v>0.0007401180033389654</v>
+        <v>0.0007631764266633435</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.988066899912312</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.947645461579711</v>
       </c>
       <c r="L16">
-        <v>0.443399729360749</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.369631363161702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.4212053854083671</v>
+      </c>
+      <c r="O16">
+        <v>0.7783753492387433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.854467327089253</v>
+        <v>3.321361249422125</v>
       </c>
       <c r="C17">
-        <v>1.290200118594385</v>
+        <v>0.7355026640548203</v>
       </c>
       <c r="D17">
-        <v>0.04984736518923683</v>
+        <v>0.02736828839912775</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.546379562773978</v>
+        <v>1.096532501715402</v>
       </c>
       <c r="G17">
-        <v>0.0007442601878865321</v>
+        <v>0.0007656941075490789</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.911136055167844</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9064816737635795</v>
       </c>
       <c r="L17">
-        <v>0.4228146465454259</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.305632725198549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4376208536788901</v>
+      </c>
+      <c r="O17">
+        <v>0.7511322385110475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.748705629637811</v>
+        <v>3.23485823227486</v>
       </c>
       <c r="C18">
-        <v>1.254562884250333</v>
+        <v>0.7167523648790564</v>
       </c>
       <c r="D18">
-        <v>0.0492774989106195</v>
+        <v>0.0271195026360509</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.456717135256127</v>
+        <v>1.072422372500881</v>
       </c>
       <c r="G18">
-        <v>0.000746646562910627</v>
+        <v>0.000767149741181198</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.867568548104202</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8829018963693755</v>
       </c>
       <c r="L18">
-        <v>0.4111210995970609</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.269193986086364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.4472335401624559</v>
+      </c>
+      <c r="O18">
+        <v>0.7357523546072642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.713039980065389</v>
+        <v>3.20562974523483</v>
       </c>
       <c r="C19">
-        <v>1.24255025021148</v>
+        <v>0.7104153739075798</v>
       </c>
       <c r="D19">
-        <v>0.04908817087635242</v>
+        <v>0.02703553892563093</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.42656017949426</v>
+        <v>1.064320935604883</v>
       </c>
       <c r="G19">
-        <v>0.0007474553458170405</v>
+        <v>0.0007676439232501799</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.852929051634291</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8749339952304354</v>
       </c>
       <c r="L19">
-        <v>0.4071857865607953</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.256917049459688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.4505170114560588</v>
+      </c>
+      <c r="O19">
+        <v>0.7305931195120152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.874111443392962</v>
+        <v>3.337400158428409</v>
       </c>
       <c r="C20">
-        <v>1.296821910899837</v>
+        <v>0.7389785502114705</v>
       </c>
       <c r="D20">
-        <v>0.04995459453049023</v>
+        <v>0.02741446438383477</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.563071917255769</v>
+        <v>1.101024615135387</v>
       </c>
       <c r="G20">
-        <v>0.0007438188723402116</v>
+        <v>0.0007654253254568401</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.919253716209994</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9108534511715192</v>
       </c>
       <c r="L20">
-        <v>0.4249905097769684</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.312406253656988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.4358555682071348</v>
+      </c>
+      <c r="O20">
+        <v>0.7540019506313627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.426454415609214</v>
+        <v>3.784717986791009</v>
       </c>
       <c r="C21">
-        <v>1.483347615080504</v>
+        <v>0.8358410337916951</v>
       </c>
       <c r="D21">
-        <v>0.05314354610965921</v>
+        <v>0.02870813263625038</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.037179656025188</v>
+        <v>1.228955732116376</v>
       </c>
       <c r="G21">
-        <v>0.0007316373484882326</v>
+        <v>0.0007580583289473752</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.150648749283661</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.032751259625485</v>
       </c>
       <c r="L21">
-        <v>0.4866591010093941</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.503537082663456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.3886821348546388</v>
+      </c>
+      <c r="O21">
+        <v>0.8362375200603935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.797299220995114</v>
+        <v>4.081005830676474</v>
       </c>
       <c r="C22">
-        <v>1.608961774333238</v>
+        <v>0.8999272785096082</v>
       </c>
       <c r="D22">
-        <v>0.05546895507466587</v>
+        <v>0.02957108679826703</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.360424951855009</v>
+        <v>1.316390193215966</v>
       </c>
       <c r="G22">
-        <v>0.0007236787798172717</v>
+        <v>0.0007533019608889052</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.309264753418859</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.113465084387371</v>
       </c>
       <c r="L22">
-        <v>0.5285769766938131</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.632571899772501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.3595128514037853</v>
+      </c>
+      <c r="O22">
+        <v>0.8929511716108181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.598363559579582</v>
+        <v>3.922475755067467</v>
       </c>
       <c r="C23">
-        <v>1.541538386903767</v>
+        <v>0.8656440173246267</v>
       </c>
       <c r="D23">
-        <v>0.05420337229156047</v>
+        <v>0.02910876416019548</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.186547280808242</v>
+        <v>1.269348750937766</v>
       </c>
       <c r="G23">
-        <v>0.0007279278661820321</v>
+        <v>0.0007558356255886657</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.22386222705012</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.070281221555874</v>
       </c>
       <c r="L23">
-        <v>0.5060404193884978</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.563283393148154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.3749219022770411</v>
+      </c>
+      <c r="O23">
+        <v>0.8623904696720786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.865227763475559</v>
+        <v>3.330147958676264</v>
       </c>
       <c r="C24">
-        <v>1.293827230990757</v>
+        <v>0.7374069096674702</v>
       </c>
       <c r="D24">
-        <v>0.04990604863288439</v>
+        <v>0.02739358348502563</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.555521631572702</v>
+        <v>1.098992610803592</v>
       </c>
       <c r="G24">
-        <v>0.0007440183752388626</v>
+        <v>0.0007655468162211746</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.915581676410511</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9088767052531921</v>
       </c>
       <c r="L24">
-        <v>0.4240063657731667</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.30934284437464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.4366531095026698</v>
+      </c>
+      <c r="O24">
+        <v>0.7527036778814988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.107327584270649</v>
+        <v>2.704883180623142</v>
       </c>
       <c r="C25">
-        <v>1.038922440611543</v>
+        <v>0.6017199173480208</v>
       </c>
       <c r="D25">
-        <v>0.04609822581306844</v>
+        <v>0.02560514591421281</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.920835427043244</v>
+        <v>0.9292336486520867</v>
       </c>
       <c r="G25">
-        <v>0.000761536620727989</v>
+        <v>0.0007763139283081922</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.608559791493079</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7383796610598239</v>
       </c>
       <c r="L25">
-        <v>0.3409950122530958</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.049309518810325</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5097107026291461</v>
+      </c>
+      <c r="O25">
+        <v>0.6452803681833927</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.252950323270966</v>
+        <v>1.087646163807079</v>
       </c>
       <c r="C2">
-        <v>0.5033630352634475</v>
+        <v>0.1718524791662759</v>
       </c>
       <c r="D2">
-        <v>0.02432874669183249</v>
+        <v>0.1130610217557972</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8138735459519637</v>
+        <v>0.1913204117280145</v>
       </c>
       <c r="G2">
-        <v>0.0007845352265797354</v>
+        <v>0.1057368201109163</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1533829928505099</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1179259936595596</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6150439831171681</v>
+        <v>1.175703412361486</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5684278253462445</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5737184256001697</v>
+        <v>0.4945442074109181</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.950492600847127</v>
+        <v>0.9522096396536881</v>
       </c>
       <c r="C3">
-        <v>0.4373583114639814</v>
+        <v>0.1546787846732371</v>
       </c>
       <c r="D3">
-        <v>0.02348381050686399</v>
+        <v>0.09932848653321003</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7406420511117773</v>
+        <v>0.1900217962060324</v>
       </c>
       <c r="G3">
-        <v>0.000790308801703782</v>
+        <v>0.1104343808696768</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1606655169287379</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1280655940869773</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5324370684091448</v>
+        <v>1.033659689014115</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6110112372181913</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5291127722461724</v>
+        <v>0.5194694331045397</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.766239106249316</v>
+        <v>0.8688894369954596</v>
       </c>
       <c r="C4">
-        <v>0.3970608887421179</v>
+        <v>0.1441175119797862</v>
       </c>
       <c r="D4">
-        <v>0.02297352007216702</v>
+        <v>0.09087722780900265</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6978029212093659</v>
+        <v>0.1898370190284204</v>
       </c>
       <c r="G4">
-        <v>0.0007939590416918417</v>
+        <v>0.1138516451568528</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1654932121475134</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1347341206234374</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4820825785761187</v>
+        <v>0.9462575925434464</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6384494618700405</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5034044027361944</v>
+        <v>0.5366426897719734</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.691462767816461</v>
+        <v>0.8348902767286575</v>
       </c>
       <c r="C5">
-        <v>0.380684723958808</v>
+        <v>0.1398090307007607</v>
       </c>
       <c r="D5">
-        <v>0.02276753154188071</v>
+        <v>0.08742788443577609</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6808366118800109</v>
+        <v>0.1899095231682111</v>
       </c>
       <c r="G5">
-        <v>0.0007954737794739617</v>
+        <v>0.1153725664685297</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1675476474384183</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1375594183700928</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4616391673464406</v>
+        <v>0.910588704988271</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6499437727655231</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4933173258343047</v>
+        <v>0.5440937798382919</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.679063226246399</v>
+        <v>0.8292418586527788</v>
       </c>
       <c r="C6">
-        <v>0.3779678679444771</v>
+        <v>0.1390933140149855</v>
       </c>
       <c r="D6">
-        <v>0.02273344079605977</v>
+        <v>0.08685478413200798</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6780478058621711</v>
+        <v>0.1899303111226622</v>
       </c>
       <c r="G6">
-        <v>0.0007957269671802109</v>
+        <v>0.115632705278145</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1678939758797853</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1380349682603557</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4582487332124217</v>
+        <v>0.9046626476871609</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6518709681619761</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4916649599779888</v>
+        <v>0.5453578888309707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.76522947111792</v>
+        <v>0.8684311028359843</v>
       </c>
       <c r="C7">
-        <v>0.3968398661511401</v>
+        <v>0.1440594258795755</v>
       </c>
       <c r="D7">
-        <v>0.02297073432810848</v>
+        <v>0.09083073121230001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6975721750453303</v>
+        <v>0.1898374064786914</v>
       </c>
       <c r="G7">
-        <v>0.0007939793586960745</v>
+        <v>0.1138716444404189</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1655205694569801</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1347717915836188</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.481806582011572</v>
+        <v>0.9457767654787688</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6386032258605354</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5032668308231862</v>
+        <v>0.5367413664175587</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.148324401472451</v>
+        <v>1.040978126221034</v>
       </c>
       <c r="C8">
-        <v>0.4805491563053579</v>
+        <v>0.1659340973834276</v>
       </c>
       <c r="D8">
-        <v>0.02403553238319134</v>
+        <v>0.1083297608779077</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7881551685737946</v>
+        <v>0.1907416873570256</v>
       </c>
       <c r="G8">
-        <v>0.0007865045919546496</v>
+        <v>0.1072424623333674</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1558185734275952</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1213280779257406</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5864752385367922</v>
+        <v>1.126762389961044</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5828351070126132</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5579691778842815</v>
+        <v>0.5027399982878435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.913986123141342</v>
+        <v>1.378312412340506</v>
       </c>
       <c r="C9">
-        <v>0.6471408461315775</v>
+        <v>0.2087263745755052</v>
       </c>
       <c r="D9">
-        <v>0.02620054433508656</v>
+        <v>0.1425167929406683</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9847700678443658</v>
+        <v>0.1976674769183582</v>
       </c>
       <c r="G9">
-        <v>0.0007726440793644268</v>
+        <v>0.0987355061683246</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1397337722392535</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.09864165281121551</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.79541383822</v>
+        <v>1.480448678871738</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4842959047222877</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.680180955162129</v>
+        <v>0.4516939561956903</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.48967685619607</v>
+        <v>1.625924068372086</v>
       </c>
       <c r="C10">
-        <v>0.7719690853894861</v>
+        <v>0.2401470078727073</v>
       </c>
       <c r="D10">
-        <v>0.02785359948989807</v>
+        <v>0.1675956380934878</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.144006991748327</v>
+        <v>0.2063189089502941</v>
       </c>
       <c r="G10">
-        <v>0.0007628901340751885</v>
+        <v>0.09560548071662822</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1298738268790096</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.08444969740657804</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9523562226986826</v>
+        <v>1.73996068250662</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4193558804614614</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7815244827091306</v>
+        <v>0.4248727821162888</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.755514029343033</v>
+        <v>1.738616468066141</v>
       </c>
       <c r="C11">
-        <v>0.8295214380429456</v>
+        <v>0.2544479113926457</v>
       </c>
       <c r="D11">
-        <v>0.02862333420786101</v>
+        <v>0.1790058416459175</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.220451436419097</v>
+        <v>0.2111259514169106</v>
       </c>
       <c r="G11">
-        <v>0.0007585321547775402</v>
+        <v>0.09494726667496423</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1258515094966839</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.07858506624004491</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.024794525062902</v>
+        <v>1.858043984910807</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3916443617384271</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8307421714621057</v>
+        <v>0.4152578108258922</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.856847610735599</v>
+        <v>1.781305855555104</v>
       </c>
       <c r="C12">
-        <v>0.8514472410831218</v>
+        <v>0.2598652893526463</v>
       </c>
       <c r="D12">
-        <v>0.0289177729492458</v>
+        <v>0.1833276220157245</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.250048602932452</v>
+        <v>0.2130801155952255</v>
       </c>
       <c r="G12">
-        <v>0.0007568920147873355</v>
+        <v>0.09481588292841536</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.124398320099921</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.07645409138084158</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.052402398113941</v>
+        <v>1.902771661678401</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3814337819207498</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8498838589614905</v>
+        <v>0.4120122943606646</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.834992279632445</v>
+        <v>1.772111127188253</v>
       </c>
       <c r="C13">
-        <v>0.84671888819841</v>
+        <v>0.2586984595485262</v>
       </c>
       <c r="D13">
-        <v>0.02885422171238972</v>
+        <v>0.1823967932720905</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.243644201869685</v>
+        <v>0.212653158232996</v>
       </c>
       <c r="G13">
-        <v>0.0007572448187855702</v>
+        <v>0.09483880848757309</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1247081223311071</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.07690896059274888</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.046448216371786</v>
+        <v>1.893138088152369</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3836198790824401</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8457379864183991</v>
+        <v>0.4126932971192332</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.763836840752617</v>
+        <v>1.742128198733639</v>
       </c>
       <c r="C14">
-        <v>0.83132250993296</v>
+        <v>0.2548935583674563</v>
       </c>
       <c r="D14">
-        <v>0.02864749607174844</v>
+        <v>0.1793613730044257</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.22287295485701</v>
+        <v>0.2112839888820019</v>
       </c>
       <c r="G14">
-        <v>0.0007583970239436577</v>
+        <v>0.09493404945519757</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1257305322532076</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.07840792091581061</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.027062129094617</v>
+        <v>1.861723468767224</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3907985343791047</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8323065278295303</v>
+        <v>0.4149827350026811</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.720342009567958</v>
+        <v>1.723765008479489</v>
       </c>
       <c r="C15">
-        <v>0.8219096520282676</v>
+        <v>0.2525632253443177</v>
       </c>
       <c r="D15">
-        <v>0.02852126873415273</v>
+        <v>0.1775022412818998</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.210236821330554</v>
+        <v>0.2104630238234364</v>
       </c>
       <c r="G15">
-        <v>0.0007591040633419735</v>
+        <v>0.0950079746775927</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1263660044152459</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07933792288431007</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.015211493708662</v>
+        <v>1.842482923147116</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3952331726794149</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8241467656133494</v>
+        <v>0.4164373041584639</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.472391500318736</v>
+        <v>1.618561055370719</v>
       </c>
       <c r="C16">
-        <v>0.7682251427483209</v>
+        <v>0.2392126328233104</v>
       </c>
       <c r="D16">
-        <v>0.02780368595876226</v>
+        <v>0.166850050898816</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.139097883913678</v>
+        <v>0.2060230123810314</v>
       </c>
       <c r="G16">
-        <v>0.0007631764266633435</v>
+        <v>0.09566455820835884</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1301462979530967</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08484526912485713</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.947645461579711</v>
+        <v>1.732244916211215</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4212053854083671</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7783753492387433</v>
+        <v>0.4255551703845484</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.321361249422125</v>
+        <v>1.554040584097265</v>
       </c>
       <c r="C17">
-        <v>0.7355026640548203</v>
+        <v>0.231024985763824</v>
       </c>
       <c r="D17">
-        <v>0.02736828839912775</v>
+        <v>0.1603162257077315</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.096532501715402</v>
+        <v>0.2035283415583535</v>
       </c>
       <c r="G17">
-        <v>0.0007656941075490789</v>
+        <v>0.09626885272916397</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1325863350800667</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.08837864737228251</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9064816737635795</v>
+        <v>1.664630502777896</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4376208536788901</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7511322385110475</v>
+        <v>0.4318274476874322</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.23485823227486</v>
+        <v>1.516934576220251</v>
       </c>
       <c r="C18">
-        <v>0.7167523648790564</v>
+        <v>0.226316318113291</v>
       </c>
       <c r="D18">
-        <v>0.0271195026360509</v>
+        <v>0.1565582563869725</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.072422372500881</v>
+        <v>0.2021749633615286</v>
       </c>
       <c r="G18">
-        <v>0.000767149741181198</v>
+        <v>0.0966880051076302</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1340331482561687</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.09046631373475744</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8829018963693755</v>
+        <v>1.625742802769338</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4472335401624559</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7357523546072642</v>
+        <v>0.435677030023534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.20562974523483</v>
+        <v>1.504371661537817</v>
       </c>
       <c r="C19">
-        <v>0.7104153739075798</v>
+        <v>0.2247221308688836</v>
       </c>
       <c r="D19">
-        <v>0.02703553892563093</v>
+        <v>0.1552858704223894</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.064320935604883</v>
+        <v>0.2017304761103027</v>
       </c>
       <c r="G19">
-        <v>0.0007676439232501799</v>
+        <v>0.09684198638749919</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1345303623860588</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.09118252765885071</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8749339952304354</v>
+        <v>1.612576267035507</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4505170114560588</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7305931195120152</v>
+        <v>0.4370212862422704</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.337400158428409</v>
+        <v>1.560908383077532</v>
       </c>
       <c r="C20">
-        <v>0.7389785502114705</v>
+        <v>0.2318965014694925</v>
       </c>
       <c r="D20">
-        <v>0.02741446438383477</v>
+        <v>0.1610117455463467</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.101024615135387</v>
+        <v>0.203785409200421</v>
       </c>
       <c r="G20">
-        <v>0.0007654253254568401</v>
+        <v>0.09619706149906548</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1323220764899382</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.08799674962508419</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9108534511715192</v>
+        <v>1.671827877670921</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4358555682071348</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7540019506313627</v>
+        <v>0.4311345468598375</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.784717986791009</v>
+        <v>1.750934434678555</v>
       </c>
       <c r="C21">
-        <v>0.8358410337916951</v>
+        <v>0.2560110903400812</v>
       </c>
       <c r="D21">
-        <v>0.02870813263625038</v>
+        <v>0.1802529166986346</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.228955732116376</v>
+        <v>0.2116824445402585</v>
       </c>
       <c r="G21">
-        <v>0.0007580583289473752</v>
+        <v>0.09490281203427742</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1254282986423618</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.07796516244112262</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.032751259625485</v>
+        <v>1.870950310841124</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3886821348546388</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8362375200603935</v>
+        <v>0.4142993446551486</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.081005830676474</v>
+        <v>1.875220130811584</v>
       </c>
       <c r="C22">
-        <v>0.8999272785096082</v>
+        <v>0.2717831032909146</v>
       </c>
       <c r="D22">
-        <v>0.02957108679826703</v>
+        <v>0.1928342459415973</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.316390193215966</v>
+        <v>0.2176280239709669</v>
       </c>
       <c r="G22">
-        <v>0.0007533019608889052</v>
+        <v>0.09474787222999481</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1213323894381446</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.07193496252193121</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.113465084387371</v>
+        <v>2.001162857265115</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3595128514037853</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8929511716108181</v>
+        <v>0.405613491193904</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.922475755067467</v>
+        <v>1.80887535628122</v>
       </c>
       <c r="C23">
-        <v>0.8656440173246267</v>
+        <v>0.2633639072800804</v>
       </c>
       <c r="D23">
-        <v>0.02910876416019548</v>
+        <v>0.1861185383458377</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.269348750937766</v>
+        <v>0.2143800488164587</v>
       </c>
       <c r="G23">
-        <v>0.0007558356255886657</v>
+        <v>0.09476467170431846</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1234798087254063</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.07510361379827923</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.070281221555874</v>
+        <v>1.931656425531941</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3749219022770411</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8623904696720786</v>
+        <v>0.4100291742780087</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.330147958676264</v>
+        <v>1.557803490133836</v>
       </c>
       <c r="C24">
-        <v>0.7374069096674702</v>
+        <v>0.2315024938935579</v>
       </c>
       <c r="D24">
-        <v>0.02739358348502563</v>
+        <v>0.1606973060232093</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.098992610803592</v>
+        <v>0.2036689377567171</v>
       </c>
       <c r="G24">
-        <v>0.0007655468162211746</v>
+        <v>0.09622929545725256</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1324414109926089</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.08816923065660198</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9088767052531921</v>
+        <v>1.66857399263489</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4366531095026698</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7527036778814988</v>
+        <v>0.4314470504381589</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.704883180623142</v>
+        <v>1.287125191434257</v>
       </c>
       <c r="C25">
-        <v>0.6017199173480208</v>
+        <v>0.1971566696531966</v>
       </c>
       <c r="D25">
-        <v>0.02560514591421281</v>
+        <v>0.1332780647312433</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9292336486520867</v>
+        <v>0.1951998830238182</v>
       </c>
       <c r="G25">
-        <v>0.0007763139283081922</v>
+        <v>0.1005176296865287</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1437537756847007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1043617765533016</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7383796610598239</v>
+        <v>1.38485824132627</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5097107026291461</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6452803681833927</v>
+        <v>0.463714152179648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.087646163807079</v>
+        <v>0.3503875436509247</v>
       </c>
       <c r="C2">
-        <v>0.1718524791662759</v>
+        <v>0.07152305426855321</v>
       </c>
       <c r="D2">
-        <v>0.1130610217557972</v>
+        <v>0.03798645198736494</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1913204117280145</v>
+        <v>0.4029373145803277</v>
       </c>
       <c r="G2">
-        <v>0.1057368201109163</v>
+        <v>0.2542690132076402</v>
       </c>
       <c r="H2">
-        <v>0.1533829928505099</v>
+        <v>0.4497223053409449</v>
       </c>
       <c r="I2">
-        <v>0.1179259936595596</v>
+        <v>0.3319660832775631</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.175703412361486</v>
+        <v>0.3733781911895733</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4945442074109181</v>
+        <v>1.327146005277669</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9522096396536881</v>
+        <v>0.3060370394515246</v>
       </c>
       <c r="C3">
-        <v>0.1546787846732371</v>
+        <v>0.06574793501576437</v>
       </c>
       <c r="D3">
-        <v>0.09932848653321003</v>
+        <v>0.03346670667245633</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1900217962060324</v>
+        <v>0.4073078043649652</v>
       </c>
       <c r="G3">
-        <v>0.1104343808696768</v>
+        <v>0.2591425515850325</v>
       </c>
       <c r="H3">
-        <v>0.1606655169287379</v>
+        <v>0.4551901566433436</v>
       </c>
       <c r="I3">
-        <v>0.1280655940869773</v>
+        <v>0.3381545387602465</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.033659689014115</v>
+        <v>0.3263780134491867</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5194694331045397</v>
+        <v>1.348737384640145</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8688894369954596</v>
+        <v>0.278699529734098</v>
       </c>
       <c r="C4">
-        <v>0.1441175119797862</v>
+        <v>0.06218614167966052</v>
       </c>
       <c r="D4">
-        <v>0.09087722780900265</v>
+        <v>0.03067700653034677</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1898370190284204</v>
+        <v>0.410308906088197</v>
       </c>
       <c r="G4">
-        <v>0.1138516451568528</v>
+        <v>0.2623812624152819</v>
       </c>
       <c r="H4">
-        <v>0.1654932121475134</v>
+        <v>0.4587657458926984</v>
       </c>
       <c r="I4">
-        <v>0.1347341206234374</v>
+        <v>0.3421849746020698</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9462575925434464</v>
+        <v>0.2973877949437451</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5366426897719734</v>
+        <v>1.362967551492744</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8348902767286575</v>
+        <v>0.2675334650646732</v>
       </c>
       <c r="C5">
-        <v>0.1398090307007607</v>
+        <v>0.0607308201097112</v>
       </c>
       <c r="D5">
-        <v>0.08742788443577609</v>
+        <v>0.02953659512822071</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1899095231682111</v>
+        <v>0.4116117073564283</v>
       </c>
       <c r="G5">
-        <v>0.1153725664685297</v>
+        <v>0.2637629048532197</v>
       </c>
       <c r="H5">
-        <v>0.1675476474384183</v>
+        <v>0.4602777373999096</v>
       </c>
       <c r="I5">
-        <v>0.1375594183700928</v>
+        <v>0.3438853779610529</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.910588704988271</v>
+        <v>0.2855417985370536</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5440937798382919</v>
+        <v>1.369010932155142</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8292418586527788</v>
+        <v>0.2656778156855921</v>
       </c>
       <c r="C6">
-        <v>0.1390933140149855</v>
+        <v>0.06048893544948442</v>
       </c>
       <c r="D6">
-        <v>0.08685478413200798</v>
+        <v>0.02934701630366021</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1899303111226622</v>
+        <v>0.4118328568562966</v>
       </c>
       <c r="G6">
-        <v>0.115632705278145</v>
+        <v>0.2639960575849827</v>
       </c>
       <c r="H6">
-        <v>0.1678939758797853</v>
+        <v>0.4605321192958272</v>
       </c>
       <c r="I6">
-        <v>0.1380349682603557</v>
+        <v>0.3441712284998495</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9046626476871609</v>
+        <v>0.2835728594920965</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5453578888309707</v>
+        <v>1.370029190831154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8684311028359843</v>
+        <v>0.2785490436110649</v>
       </c>
       <c r="C7">
-        <v>0.1440594258795755</v>
+        <v>0.06216653017699514</v>
       </c>
       <c r="D7">
-        <v>0.09083073121230001</v>
+        <v>0.03066164096357227</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1898374064786914</v>
+        <v>0.4103261529488229</v>
       </c>
       <c r="G7">
-        <v>0.1138716444404189</v>
+        <v>0.262399645470321</v>
       </c>
       <c r="H7">
-        <v>0.1655205694569801</v>
+        <v>0.4587859147907665</v>
       </c>
       <c r="I7">
-        <v>0.1347717915836188</v>
+        <v>0.3422076721827896</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9457767654787688</v>
+        <v>0.2972281650323509</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5367413664175587</v>
+        <v>1.363048065029808</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.040978126221034</v>
+        <v>0.3351180275786021</v>
       </c>
       <c r="C8">
-        <v>0.1659340973834276</v>
+        <v>0.06953515404821076</v>
       </c>
       <c r="D8">
-        <v>0.1083297608779077</v>
+        <v>0.03643110896115331</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1907416873570256</v>
+        <v>0.4043783193053478</v>
       </c>
       <c r="G8">
-        <v>0.1072424623333674</v>
+        <v>0.2558982207380645</v>
       </c>
       <c r="H8">
-        <v>0.1558185734275952</v>
+        <v>0.4515623204272856</v>
       </c>
       <c r="I8">
-        <v>0.1213280779257406</v>
+        <v>0.3340519559692083</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.126762389961044</v>
+        <v>0.3572004500454113</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5027399982878435</v>
+        <v>1.334388660621002</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.378312412340506</v>
+        <v>0.4451742309730093</v>
       </c>
       <c r="C9">
-        <v>0.2087263745755052</v>
+        <v>0.08385453622885564</v>
       </c>
       <c r="D9">
-        <v>0.1425167929406683</v>
+        <v>0.047626721883546</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1976674769183582</v>
+        <v>0.3952364480654715</v>
       </c>
       <c r="G9">
-        <v>0.0987355061683246</v>
+        <v>0.2451080160695547</v>
       </c>
       <c r="H9">
-        <v>0.1397337722392535</v>
+        <v>0.4391282335984172</v>
       </c>
       <c r="I9">
-        <v>0.09864165281121551</v>
+        <v>0.3198908106133267</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.480448678871738</v>
+        <v>0.4737239870600547</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4516939561956903</v>
+        <v>1.285915762620874</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.625924068372086</v>
+        <v>0.5254615914982423</v>
       </c>
       <c r="C10">
-        <v>0.2401470078727073</v>
+        <v>0.09429007978312143</v>
       </c>
       <c r="D10">
-        <v>0.1675956380934878</v>
+        <v>0.05577702495135384</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2063189089502941</v>
+        <v>0.390059948469478</v>
       </c>
       <c r="G10">
-        <v>0.09560548071662822</v>
+        <v>0.2383807654404322</v>
       </c>
       <c r="H10">
-        <v>0.1298738268790096</v>
+        <v>0.4310470944409666</v>
       </c>
       <c r="I10">
-        <v>0.08444969740657804</v>
+        <v>0.3106055530234189</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.73996068250662</v>
+        <v>0.5586349274441318</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4248727821162888</v>
+        <v>1.255024269204135</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.738616468066141</v>
+        <v>0.561855001251331</v>
       </c>
       <c r="C11">
-        <v>0.2544479113926457</v>
+        <v>0.09901796781205974</v>
       </c>
       <c r="D11">
-        <v>0.1790058416459175</v>
+        <v>0.05946790539057645</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2111259514169106</v>
+        <v>0.3880400040609189</v>
       </c>
       <c r="G11">
-        <v>0.09494726667496423</v>
+        <v>0.2355822715122322</v>
       </c>
       <c r="H11">
-        <v>0.1258515094966839</v>
+        <v>0.4275993994273364</v>
       </c>
       <c r="I11">
-        <v>0.07858506624004491</v>
+        <v>0.3066248232634754</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.858043984910807</v>
+        <v>0.5971035251382375</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4152578108258922</v>
+        <v>1.241998325336858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.781305855555104</v>
+        <v>0.5756167958982985</v>
       </c>
       <c r="C12">
-        <v>0.2598652893526463</v>
+        <v>0.1008054101561413</v>
       </c>
       <c r="D12">
-        <v>0.1833276220157245</v>
+        <v>0.06086307222010134</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2130801155952255</v>
+        <v>0.3873233007568331</v>
       </c>
       <c r="G12">
-        <v>0.09481588292841536</v>
+        <v>0.2345603038385136</v>
       </c>
       <c r="H12">
-        <v>0.124398320099921</v>
+        <v>0.4263266842350149</v>
       </c>
       <c r="I12">
-        <v>0.07645409138084158</v>
+        <v>0.3051524377725805</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.902771661678401</v>
+        <v>0.6116470554299269</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4120122943606646</v>
+        <v>1.237213586703845</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.772111127188253</v>
+        <v>0.5726538339449121</v>
       </c>
       <c r="C13">
-        <v>0.2586984595485262</v>
+        <v>0.1004205838182202</v>
       </c>
       <c r="D13">
-        <v>0.1823967932720905</v>
+        <v>0.06056271012765535</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.212653158232996</v>
+        <v>0.3874755108627781</v>
       </c>
       <c r="G13">
-        <v>0.09483880848757309</v>
+        <v>0.2347787215299064</v>
       </c>
       <c r="H13">
-        <v>0.1247081223311071</v>
+        <v>0.4265993251120079</v>
       </c>
       <c r="I13">
-        <v>0.07690896059274888</v>
+        <v>0.3054679833689518</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.893138088152369</v>
+        <v>0.6085159155797442</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4126932971192332</v>
+        <v>1.238237483646984</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.742128198733639</v>
+        <v>0.562987590603143</v>
       </c>
       <c r="C14">
-        <v>0.2548935583674563</v>
+        <v>0.09916508076788944</v>
       </c>
       <c r="D14">
-        <v>0.1793613730044257</v>
+        <v>0.05958273697551419</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2112839888820019</v>
+        <v>0.3879800740413728</v>
       </c>
       <c r="G14">
-        <v>0.09493404945519757</v>
+        <v>0.2354974361442856</v>
       </c>
       <c r="H14">
-        <v>0.1257305322532076</v>
+        <v>0.4274940339756235</v>
       </c>
       <c r="I14">
-        <v>0.07840792091581061</v>
+        <v>0.306502986809619</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.861723468767224</v>
+        <v>0.5983005106778592</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4149827350026811</v>
+        <v>1.241601716332873</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.723765008479489</v>
+        <v>0.5570641569190116</v>
       </c>
       <c r="C15">
-        <v>0.2525632253443177</v>
+        <v>0.09839566651464793</v>
       </c>
       <c r="D15">
-        <v>0.1775022412818998</v>
+        <v>0.05898214844729921</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2104630238234364</v>
+        <v>0.388295412886805</v>
       </c>
       <c r="G15">
-        <v>0.0950079746775927</v>
+        <v>0.2359425907552897</v>
       </c>
       <c r="H15">
-        <v>0.1263660044152459</v>
+        <v>0.4280463473113585</v>
       </c>
       <c r="I15">
-        <v>0.07933792288431007</v>
+        <v>0.3071415201205667</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.842482923147116</v>
+        <v>0.592040165116174</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4164373041584639</v>
+        <v>1.243681675020568</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.618561055370719</v>
+        <v>0.5230805053805057</v>
       </c>
       <c r="C16">
-        <v>0.2392126328233104</v>
+        <v>0.09398070166675154</v>
       </c>
       <c r="D16">
-        <v>0.166850050898816</v>
+        <v>0.05553547340075227</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2060230123810314</v>
+        <v>0.3901986995072733</v>
       </c>
       <c r="G16">
-        <v>0.09566455820835884</v>
+        <v>0.2385689312543207</v>
       </c>
       <c r="H16">
-        <v>0.1301462979530967</v>
+        <v>0.4312770065697151</v>
       </c>
       <c r="I16">
-        <v>0.08484526912485713</v>
+        <v>0.3108706017470881</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.732244916211215</v>
+        <v>0.5561176529832323</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4255551703845484</v>
+        <v>1.255896228250251</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.554040584097265</v>
+        <v>0.5021987382965563</v>
       </c>
       <c r="C17">
-        <v>0.231024985763824</v>
+        <v>0.09126722827906519</v>
       </c>
       <c r="D17">
-        <v>0.1603162257077315</v>
+        <v>0.05341670486357941</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2035283415583535</v>
+        <v>0.3914521100177524</v>
       </c>
       <c r="G17">
-        <v>0.09626885272916397</v>
+        <v>0.2402472361378791</v>
       </c>
       <c r="H17">
-        <v>0.1325863350800667</v>
+        <v>0.4333174246953782</v>
       </c>
       <c r="I17">
-        <v>0.08837864737228251</v>
+        <v>0.3132206007158818</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.664630502777896</v>
+        <v>0.5340392230971815</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4318274476874322</v>
+        <v>1.263652621119206</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.516934576220251</v>
+        <v>0.4901759453647685</v>
       </c>
       <c r="C18">
-        <v>0.226316318113291</v>
+        <v>0.0897047020501418</v>
       </c>
       <c r="D18">
-        <v>0.1565582563869725</v>
+        <v>0.05219647519996329</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2021749633615286</v>
+        <v>0.3922045552566225</v>
       </c>
       <c r="G18">
-        <v>0.0966880051076302</v>
+        <v>0.241237184311089</v>
       </c>
       <c r="H18">
-        <v>0.1340331482561687</v>
+        <v>0.4345125225464059</v>
       </c>
       <c r="I18">
-        <v>0.09046631373475744</v>
+        <v>0.3145951436196759</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.625742802769338</v>
+        <v>0.5213254993925034</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.435677030023534</v>
+        <v>1.26821052060248</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.504371661537817</v>
+        <v>0.486103175915531</v>
       </c>
       <c r="C19">
-        <v>0.2247221308688836</v>
+        <v>0.08917535100418661</v>
       </c>
       <c r="D19">
-        <v>0.1552858704223894</v>
+        <v>0.05178305928355087</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2017304761103027</v>
+        <v>0.3924647317031429</v>
       </c>
       <c r="G19">
-        <v>0.09684198638749919</v>
+        <v>0.2415765905894105</v>
       </c>
       <c r="H19">
-        <v>0.1345303623860588</v>
+        <v>0.4349208553447603</v>
       </c>
       <c r="I19">
-        <v>0.09118252765885071</v>
+        <v>0.3150644689841418</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.612576267035507</v>
+        <v>0.517018340480945</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4370212862422704</v>
+        <v>1.269770335004644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.560908383077532</v>
+        <v>0.504422902690834</v>
       </c>
       <c r="C20">
-        <v>0.2318965014694925</v>
+        <v>0.09155627024249213</v>
       </c>
       <c r="D20">
-        <v>0.1610117455463467</v>
+        <v>0.05364241448702955</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.203785409200421</v>
+        <v>0.391315420093953</v>
       </c>
       <c r="G20">
-        <v>0.09619706149906548</v>
+        <v>0.2400660275706485</v>
       </c>
       <c r="H20">
-        <v>0.1323220764899382</v>
+        <v>0.4330979931871681</v>
       </c>
       <c r="I20">
-        <v>0.08799674962508419</v>
+        <v>0.31296807028908</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.671827877670921</v>
+        <v>0.5363910481026153</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4311345468598375</v>
+        <v>1.262816937402363</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.750934434678555</v>
+        <v>0.5658273400511291</v>
       </c>
       <c r="C21">
-        <v>0.2560110903400812</v>
+        <v>0.09953393237157115</v>
       </c>
       <c r="D21">
-        <v>0.1802529166986346</v>
+        <v>0.05987064707299794</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2116824445402585</v>
+        <v>0.3878305629082917</v>
       </c>
       <c r="G21">
-        <v>0.09490281203427742</v>
+        <v>0.2352853064638012</v>
       </c>
       <c r="H21">
-        <v>0.1254282986423618</v>
+        <v>0.42723034469509</v>
       </c>
       <c r="I21">
-        <v>0.07796516244112262</v>
+        <v>0.3061980300056701</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.870950310841124</v>
+        <v>0.6013016736837926</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4142993446551486</v>
+        <v>1.240609543538731</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.875220130811584</v>
+        <v>0.6058440095919195</v>
       </c>
       <c r="C22">
-        <v>0.2717831032909146</v>
+        <v>0.1047307950926353</v>
       </c>
       <c r="D22">
-        <v>0.1928342459415973</v>
+        <v>0.06392660779955861</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2176280239709669</v>
+        <v>0.3858340105856257</v>
       </c>
       <c r="G22">
-        <v>0.09474787222999481</v>
+        <v>0.2323809849145775</v>
       </c>
       <c r="H22">
-        <v>0.1213323894381446</v>
+        <v>0.4235869844591065</v>
       </c>
       <c r="I22">
-        <v>0.07193496252193121</v>
+        <v>0.3019776299686168</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.001162857265115</v>
+        <v>0.6435859589345512</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.405613491193904</v>
+        <v>1.226957941121739</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.80887535628122</v>
+        <v>0.5844971653326922</v>
       </c>
       <c r="C23">
-        <v>0.2633639072800804</v>
+        <v>0.1019587306660128</v>
       </c>
       <c r="D23">
-        <v>0.1861185383458377</v>
+        <v>0.06176322400698098</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2143800488164587</v>
+        <v>0.3868738795961946</v>
       </c>
       <c r="G23">
-        <v>0.09476467170431846</v>
+        <v>0.2339108924875859</v>
       </c>
       <c r="H23">
-        <v>0.1234798087254063</v>
+        <v>0.4255139931600951</v>
       </c>
       <c r="I23">
-        <v>0.07510361379827923</v>
+        <v>0.304211431230879</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.931656425531941</v>
+        <v>0.6210310476998018</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4100291742780087</v>
+        <v>1.234165081135146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.557803490133836</v>
+        <v>0.5034174126767823</v>
       </c>
       <c r="C24">
-        <v>0.2315024938935579</v>
+        <v>0.091425602191606</v>
       </c>
       <c r="D24">
-        <v>0.1606973060232093</v>
+        <v>0.05354037776784537</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2036689377567171</v>
+        <v>0.3913771184260142</v>
       </c>
       <c r="G24">
-        <v>0.09622929545725256</v>
+        <v>0.2401478738880236</v>
       </c>
       <c r="H24">
-        <v>0.1324414109926089</v>
+        <v>0.4331971295377492</v>
       </c>
       <c r="I24">
-        <v>0.08816923065660198</v>
+        <v>0.3130821661087362</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.66857399263489</v>
+        <v>0.5353278519219202</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4314470504381589</v>
+        <v>1.263194442759477</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.287125191434257</v>
+        <v>0.4154986941949517</v>
       </c>
       <c r="C25">
-        <v>0.1971566696531966</v>
+        <v>0.07999528855910398</v>
       </c>
       <c r="D25">
-        <v>0.1332780647312433</v>
+        <v>0.04461098617517223</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1951998830238182</v>
+        <v>0.3974393084682362</v>
       </c>
       <c r="G25">
-        <v>0.1005176296865287</v>
+        <v>0.2478166951839498</v>
       </c>
       <c r="H25">
-        <v>0.1437537756847007</v>
+        <v>0.4423067639049272</v>
       </c>
       <c r="I25">
-        <v>0.1043617765533016</v>
+        <v>0.3235254210735317</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.38485824132627</v>
+        <v>0.4423211902054618</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.463714152179648</v>
+        <v>1.29820054766072</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3503875436509247</v>
+        <v>1.087646163807221</v>
       </c>
       <c r="C2">
-        <v>0.07152305426855321</v>
+        <v>0.1718524791660343</v>
       </c>
       <c r="D2">
-        <v>0.03798645198736494</v>
+        <v>0.1130610217557972</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4029373145803277</v>
+        <v>0.1913204117280429</v>
       </c>
       <c r="G2">
-        <v>0.2542690132076402</v>
+        <v>0.1057368201109625</v>
       </c>
       <c r="H2">
-        <v>0.4497223053409449</v>
+        <v>0.1533829928505028</v>
       </c>
       <c r="I2">
-        <v>0.3319660832775631</v>
+        <v>0.1179259936595578</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3733781911895733</v>
+        <v>1.175703412361514</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.327146005277669</v>
+        <v>0.4945442074108541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3060370394515246</v>
+        <v>0.9522096396536881</v>
       </c>
       <c r="C3">
-        <v>0.06574793501576437</v>
+        <v>0.1546787846732514</v>
       </c>
       <c r="D3">
-        <v>0.03346670667245633</v>
+        <v>0.09932848653332371</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4073078043649652</v>
+        <v>0.1900217962060609</v>
       </c>
       <c r="G3">
-        <v>0.2591425515850325</v>
+        <v>0.1104343808697337</v>
       </c>
       <c r="H3">
-        <v>0.4551901566433436</v>
+        <v>0.1606655169286242</v>
       </c>
       <c r="I3">
-        <v>0.3381545387602465</v>
+        <v>0.1280655940869755</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3263780134491867</v>
+        <v>1.033659689014172</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.348737384640145</v>
+        <v>0.5194694331045895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.278699529734098</v>
+        <v>0.8688894369955449</v>
       </c>
       <c r="C4">
-        <v>0.06218614167966052</v>
+        <v>0.1441175119799851</v>
       </c>
       <c r="D4">
-        <v>0.03067700653034677</v>
+        <v>0.09087722780910212</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.410308906088197</v>
+        <v>0.189837019028424</v>
       </c>
       <c r="G4">
-        <v>0.2623812624152819</v>
+        <v>0.1138516451568563</v>
       </c>
       <c r="H4">
-        <v>0.4587657458926984</v>
+        <v>0.1654932121474957</v>
       </c>
       <c r="I4">
-        <v>0.3421849746020698</v>
+        <v>0.1347341206234418</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2973877949437451</v>
+        <v>0.9462575925434464</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.362967551492744</v>
+        <v>0.5366426897719307</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2675334650646732</v>
+        <v>0.8348902767286575</v>
       </c>
       <c r="C5">
-        <v>0.0607308201097112</v>
+        <v>0.1398090307007323</v>
       </c>
       <c r="D5">
-        <v>0.02953659512822071</v>
+        <v>0.08742788443598215</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4116117073564283</v>
+        <v>0.1899095231682111</v>
       </c>
       <c r="G5">
-        <v>0.2637629048532197</v>
+        <v>0.1153725664685261</v>
       </c>
       <c r="H5">
-        <v>0.4602777373999096</v>
+        <v>0.1675476474384183</v>
       </c>
       <c r="I5">
-        <v>0.3438853779610529</v>
+        <v>0.1375594183701043</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2855417985370536</v>
+        <v>0.9105887049882995</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.369010932155142</v>
+        <v>0.5440937798382848</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2656778156855921</v>
+        <v>0.8292418586528072</v>
       </c>
       <c r="C6">
-        <v>0.06048893544948442</v>
+        <v>0.1390933140149855</v>
       </c>
       <c r="D6">
-        <v>0.02934701630366021</v>
+        <v>0.08685478413200087</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4118328568562966</v>
+        <v>0.1899303111226622</v>
       </c>
       <c r="G6">
-        <v>0.2639960575849827</v>
+        <v>0.1156327052782018</v>
       </c>
       <c r="H6">
-        <v>0.4605321192958272</v>
+        <v>0.1678939758797817</v>
       </c>
       <c r="I6">
-        <v>0.3441712284998495</v>
+        <v>0.1380349682603548</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2835728594920965</v>
+        <v>0.9046626476871609</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.370029190831154</v>
+        <v>0.5453578888309565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2785490436110649</v>
+        <v>0.8684311028359559</v>
       </c>
       <c r="C7">
-        <v>0.06216653017699514</v>
+        <v>0.144059425879604</v>
       </c>
       <c r="D7">
-        <v>0.03066164096357227</v>
+        <v>0.0908307312122858</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4103261529488229</v>
+        <v>0.189837406478663</v>
       </c>
       <c r="G7">
-        <v>0.262399645470321</v>
+        <v>0.1138716444404828</v>
       </c>
       <c r="H7">
-        <v>0.4587859147907665</v>
+        <v>0.16552056945687</v>
       </c>
       <c r="I7">
-        <v>0.3422076721827896</v>
+        <v>0.1347717915836215</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2972281650323509</v>
+        <v>0.945776765478854</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.363048065029808</v>
+        <v>0.5367413664175658</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3351180275786021</v>
+        <v>1.040978126221034</v>
       </c>
       <c r="C8">
-        <v>0.06953515404821076</v>
+        <v>0.1659340973832144</v>
       </c>
       <c r="D8">
-        <v>0.03643110896115331</v>
+        <v>0.1083297608780356</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4043783193053478</v>
+        <v>0.190741687357022</v>
       </c>
       <c r="G8">
-        <v>0.2558982207380645</v>
+        <v>0.1072424623332466</v>
       </c>
       <c r="H8">
-        <v>0.4515623204272856</v>
+        <v>0.1558185734277089</v>
       </c>
       <c r="I8">
-        <v>0.3340519559692083</v>
+        <v>0.1213280779257415</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3572004500454113</v>
+        <v>1.126762389961186</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.334388660621002</v>
+        <v>0.5027399982879004</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4451742309730093</v>
+        <v>1.378312412340563</v>
       </c>
       <c r="C9">
-        <v>0.08385453622885564</v>
+        <v>0.2087263745759742</v>
       </c>
       <c r="D9">
-        <v>0.047626721883546</v>
+        <v>0.1425167929407962</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3952364480654715</v>
+        <v>0.1976674769183298</v>
       </c>
       <c r="G9">
-        <v>0.2451080160695547</v>
+        <v>0.0987355061682571</v>
       </c>
       <c r="H9">
-        <v>0.4391282335984172</v>
+        <v>0.1397337722392535</v>
       </c>
       <c r="I9">
-        <v>0.3198908106133267</v>
+        <v>0.09864165281121462</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4737239870600547</v>
+        <v>1.480448678871625</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.285915762620874</v>
+        <v>0.4516939561956974</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5254615914982423</v>
+        <v>1.625924068372001</v>
       </c>
       <c r="C10">
-        <v>0.09429007978312143</v>
+        <v>0.2401470078727215</v>
       </c>
       <c r="D10">
-        <v>0.05577702495135384</v>
+        <v>0.1675956380934878</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.390059948469478</v>
+        <v>0.2063189089502657</v>
       </c>
       <c r="G10">
-        <v>0.2383807654404322</v>
+        <v>0.09560548071656427</v>
       </c>
       <c r="H10">
-        <v>0.4310470944409666</v>
+        <v>0.1298738268790096</v>
       </c>
       <c r="I10">
-        <v>0.3106055530234189</v>
+        <v>0.08444969740658248</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5586349274441318</v>
+        <v>1.739960682506535</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.255024269204135</v>
+        <v>0.4248727821162461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.561855001251331</v>
+        <v>1.738616468066283</v>
       </c>
       <c r="C11">
-        <v>0.09901796781205974</v>
+        <v>0.2544479113923614</v>
       </c>
       <c r="D11">
-        <v>0.05946790539057645</v>
+        <v>0.1790058416458891</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3880400040609189</v>
+        <v>0.2111259514169106</v>
       </c>
       <c r="G11">
-        <v>0.2355822715122322</v>
+        <v>0.09494726667491449</v>
       </c>
       <c r="H11">
-        <v>0.4275993994273364</v>
+        <v>0.1258515094966768</v>
       </c>
       <c r="I11">
-        <v>0.3066248232634754</v>
+        <v>0.07858506624003958</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5971035251382375</v>
+        <v>1.858043984910779</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.241998325336858</v>
+        <v>0.4152578108258922</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5756167958982985</v>
+        <v>1.781305855555217</v>
       </c>
       <c r="C12">
-        <v>0.1008054101561413</v>
+        <v>0.2598652893526605</v>
       </c>
       <c r="D12">
-        <v>0.06086307222010134</v>
+        <v>0.1833276220157103</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3873233007568331</v>
+        <v>0.213080115595254</v>
       </c>
       <c r="G12">
-        <v>0.2345603038385136</v>
+        <v>0.09481588292840826</v>
       </c>
       <c r="H12">
-        <v>0.4263266842350149</v>
+        <v>0.124398320099921</v>
       </c>
       <c r="I12">
-        <v>0.3051524377725805</v>
+        <v>0.07645409138085757</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6116470554299269</v>
+        <v>1.902771661678401</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.237213586703845</v>
+        <v>0.4120122943606219</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5726538339449121</v>
+        <v>1.772111127188168</v>
       </c>
       <c r="C13">
-        <v>0.1004205838182202</v>
+        <v>0.258698459548043</v>
       </c>
       <c r="D13">
-        <v>0.06056271012765535</v>
+        <v>0.182396793271991</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3874755108627781</v>
+        <v>0.2126531582329676</v>
       </c>
       <c r="G13">
-        <v>0.2347787215299064</v>
+        <v>0.09483880848757309</v>
       </c>
       <c r="H13">
-        <v>0.4265993251120079</v>
+        <v>0.1247081223311142</v>
       </c>
       <c r="I13">
-        <v>0.3054679833689518</v>
+        <v>0.07690896059274888</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6085159155797442</v>
+        <v>1.893138088152284</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.238237483646984</v>
+        <v>0.4126932971192332</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.562987590603143</v>
+        <v>1.74212819873361</v>
       </c>
       <c r="C14">
-        <v>0.09916508076788944</v>
+        <v>0.2548935583674563</v>
       </c>
       <c r="D14">
-        <v>0.05958273697551419</v>
+        <v>0.1793613730044257</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3879800740413728</v>
+        <v>0.2112839888820019</v>
       </c>
       <c r="G14">
-        <v>0.2354974361442856</v>
+        <v>0.09493404945519757</v>
       </c>
       <c r="H14">
-        <v>0.4274940339756235</v>
+        <v>0.1257305322532076</v>
       </c>
       <c r="I14">
-        <v>0.306502986809619</v>
+        <v>0.07840792091581061</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5983005106778592</v>
+        <v>1.861723468766996</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.241601716332873</v>
+        <v>0.4149827350026243</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5570641569190116</v>
+        <v>1.723765008479603</v>
       </c>
       <c r="C15">
-        <v>0.09839566651464793</v>
+        <v>0.2525632253441046</v>
       </c>
       <c r="D15">
-        <v>0.05898214844729921</v>
+        <v>0.1775022412817862</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.388295412886805</v>
+        <v>0.2104630238234577</v>
       </c>
       <c r="G15">
-        <v>0.2359425907552897</v>
+        <v>0.09500797467753586</v>
       </c>
       <c r="H15">
-        <v>0.4280463473113585</v>
+        <v>0.1263660044153596</v>
       </c>
       <c r="I15">
-        <v>0.3071415201205667</v>
+        <v>0.07933792288430652</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.592040165116174</v>
+        <v>1.842482923147145</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.243681675020568</v>
+        <v>0.4164373041585065</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5230805053805057</v>
+        <v>1.618561055370719</v>
       </c>
       <c r="C16">
-        <v>0.09398070166675154</v>
+        <v>0.2392126328232962</v>
       </c>
       <c r="D16">
-        <v>0.05553547340075227</v>
+        <v>0.166850050898887</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3901986995072733</v>
+        <v>0.2060230123810314</v>
       </c>
       <c r="G16">
-        <v>0.2385689312543207</v>
+        <v>0.09566455820841568</v>
       </c>
       <c r="H16">
-        <v>0.4312770065697151</v>
+        <v>0.1301462979532069</v>
       </c>
       <c r="I16">
-        <v>0.3108706017470881</v>
+        <v>0.08484526912485268</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5561176529832323</v>
+        <v>1.732244916211329</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.255896228250251</v>
+        <v>0.4255551703845342</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5021987382965563</v>
+        <v>1.554040584097237</v>
       </c>
       <c r="C17">
-        <v>0.09126722827906519</v>
+        <v>0.2310249857636251</v>
       </c>
       <c r="D17">
-        <v>0.05341670486357941</v>
+        <v>0.1603162257077742</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3914521100177524</v>
+        <v>0.2035283415583251</v>
       </c>
       <c r="G17">
-        <v>0.2402472361378791</v>
+        <v>0.09626885272923147</v>
       </c>
       <c r="H17">
-        <v>0.4333174246953782</v>
+        <v>0.1325863350801804</v>
       </c>
       <c r="I17">
-        <v>0.3132206007158818</v>
+        <v>0.08837864737229939</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5340392230971815</v>
+        <v>1.664630502777896</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.263652621119206</v>
+        <v>0.4318274476874393</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4901759453647685</v>
+        <v>1.516934576220393</v>
       </c>
       <c r="C18">
-        <v>0.0897047020501418</v>
+        <v>0.2263163181132768</v>
       </c>
       <c r="D18">
-        <v>0.05219647519996329</v>
+        <v>0.1565582563867736</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3922045552566225</v>
+        <v>0.2021749633615073</v>
       </c>
       <c r="G18">
-        <v>0.241237184311089</v>
+        <v>0.09668800510767994</v>
       </c>
       <c r="H18">
-        <v>0.4345125225464059</v>
+        <v>0.1340331482561652</v>
       </c>
       <c r="I18">
-        <v>0.3145951436196759</v>
+        <v>0.09046631373475389</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5213254993925034</v>
+        <v>1.625742802769508</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.26821052060248</v>
+        <v>0.4356770300235837</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.486103175915531</v>
+        <v>1.504371661537732</v>
       </c>
       <c r="C19">
-        <v>0.08917535100418661</v>
+        <v>0.2247221308688552</v>
       </c>
       <c r="D19">
-        <v>0.05178305928355087</v>
+        <v>0.1552858704224036</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3924647317031429</v>
+        <v>0.2017304761103027</v>
       </c>
       <c r="G19">
-        <v>0.2415765905894105</v>
+        <v>0.09684198638754893</v>
       </c>
       <c r="H19">
-        <v>0.4349208553447603</v>
+        <v>0.1345303623860552</v>
       </c>
       <c r="I19">
-        <v>0.3150644689841418</v>
+        <v>0.0911825276588436</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.517018340480945</v>
+        <v>1.612576267035678</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.269770335004644</v>
+        <v>0.4370212862423131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.504422902690834</v>
+        <v>1.560908383077305</v>
       </c>
       <c r="C20">
-        <v>0.09155627024249213</v>
+        <v>0.2318965014692793</v>
       </c>
       <c r="D20">
-        <v>0.05364241448702955</v>
+        <v>0.1610117455464746</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.391315420093953</v>
+        <v>0.2037854092003926</v>
       </c>
       <c r="G20">
-        <v>0.2400660275706485</v>
+        <v>0.09619706149907259</v>
       </c>
       <c r="H20">
-        <v>0.4330979931871681</v>
+        <v>0.1323220764900519</v>
       </c>
       <c r="I20">
-        <v>0.31296807028908</v>
+        <v>0.08799674962506909</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5363910481026153</v>
+        <v>1.671827877670921</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.262816937402363</v>
+        <v>0.4311345468598304</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5658273400511291</v>
+        <v>1.750934434678442</v>
       </c>
       <c r="C21">
-        <v>0.09953393237157115</v>
+        <v>0.2560110903400528</v>
       </c>
       <c r="D21">
-        <v>0.05987064707299794</v>
+        <v>0.1802529166985209</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3878305629082917</v>
+        <v>0.211682444540223</v>
       </c>
       <c r="G21">
-        <v>0.2352853064638012</v>
+        <v>0.09490281203429163</v>
       </c>
       <c r="H21">
-        <v>0.42723034469509</v>
+        <v>0.1254282986423618</v>
       </c>
       <c r="I21">
-        <v>0.3061980300056701</v>
+        <v>0.07796516244110663</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6013016736837926</v>
+        <v>1.870950310841067</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.240609543538731</v>
+        <v>0.4142993446550776</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6058440095919195</v>
+        <v>1.87522013081184</v>
       </c>
       <c r="C22">
-        <v>0.1047307950926353</v>
+        <v>0.2717831032910993</v>
       </c>
       <c r="D22">
-        <v>0.06392660779955861</v>
+        <v>0.1928342459416825</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3858340105856257</v>
+        <v>0.2176280239709953</v>
       </c>
       <c r="G22">
-        <v>0.2323809849145775</v>
+        <v>0.09474787222993797</v>
       </c>
       <c r="H22">
-        <v>0.4235869844591065</v>
+        <v>0.1213323894381446</v>
       </c>
       <c r="I22">
-        <v>0.3019776299686168</v>
+        <v>0.07193496252193032</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6435859589345512</v>
+        <v>2.001162857265285</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.226957941121739</v>
+        <v>0.4056134911939608</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5844971653326922</v>
+        <v>1.808875356281078</v>
       </c>
       <c r="C23">
-        <v>0.1019587306660128</v>
+        <v>0.2633639072803362</v>
       </c>
       <c r="D23">
-        <v>0.06176322400698098</v>
+        <v>0.1861185383458235</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3868738795961946</v>
+        <v>0.2143800488164516</v>
       </c>
       <c r="G23">
-        <v>0.2339108924875859</v>
+        <v>0.09476467170426872</v>
       </c>
       <c r="H23">
-        <v>0.4255139931600951</v>
+        <v>0.1234798087253992</v>
       </c>
       <c r="I23">
-        <v>0.304211431230879</v>
+        <v>0.07510361379827479</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6210310476998018</v>
+        <v>1.931656425531827</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.234165081135146</v>
+        <v>0.4100291742779945</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5034174126767823</v>
+        <v>1.557803490133722</v>
       </c>
       <c r="C24">
-        <v>0.091425602191606</v>
+        <v>0.2315024938938279</v>
       </c>
       <c r="D24">
-        <v>0.05354037776784537</v>
+        <v>0.1606973060231667</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3913771184260142</v>
+        <v>0.2036689377567171</v>
       </c>
       <c r="G24">
-        <v>0.2401478738880236</v>
+        <v>0.09622929545731296</v>
       </c>
       <c r="H24">
-        <v>0.4331971295377492</v>
+        <v>0.1324414109926089</v>
       </c>
       <c r="I24">
-        <v>0.3130821661087362</v>
+        <v>0.08816923065660198</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5353278519219202</v>
+        <v>1.668573992634776</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.263194442759477</v>
+        <v>0.4314470504381589</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4154986941949517</v>
+        <v>1.28712519143437</v>
       </c>
       <c r="C25">
-        <v>0.07999528855910398</v>
+        <v>0.1971566696531966</v>
       </c>
       <c r="D25">
-        <v>0.04461098617517223</v>
+        <v>0.1332780647312717</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3974393084682362</v>
+        <v>0.1951998830238217</v>
       </c>
       <c r="G25">
-        <v>0.2478166951839498</v>
+        <v>0.100517629686582</v>
       </c>
       <c r="H25">
-        <v>0.4423067639049272</v>
+        <v>0.1437537756846972</v>
       </c>
       <c r="I25">
-        <v>0.3235254210735317</v>
+        <v>0.1043617765533007</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4423211902054618</v>
+        <v>1.38485824132627</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.29820054766072</v>
+        <v>0.4637141521796551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.087646163807221</v>
+        <v>0.8109598357490597</v>
       </c>
       <c r="C2">
-        <v>0.1718524791660343</v>
+        <v>0.1697356500495601</v>
       </c>
       <c r="D2">
-        <v>0.1130610217557972</v>
+        <v>0.09984778784259873</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1913204117280429</v>
+        <v>0.250953111982696</v>
       </c>
       <c r="G2">
-        <v>0.1057368201109625</v>
+        <v>0.1562474041788775</v>
       </c>
       <c r="H2">
-        <v>0.1533829928505028</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1179259936595578</v>
+        <v>0.001767363760962759</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1862947622135778</v>
       </c>
       <c r="K2">
-        <v>1.175703412361514</v>
+        <v>0.1663863374626988</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8924417653248895</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4945442074108541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7295405234768708</v>
+      </c>
+      <c r="Q2">
+        <v>0.670276837913363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9522096396536881</v>
+        <v>0.7074309037143678</v>
       </c>
       <c r="C3">
-        <v>0.1546787846732514</v>
+        <v>0.1548079662406394</v>
       </c>
       <c r="D3">
-        <v>0.09932848653332371</v>
+        <v>0.08781242387264854</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1900217962060609</v>
+        <v>0.2426159748669363</v>
       </c>
       <c r="G3">
-        <v>0.1104343808697337</v>
+        <v>0.1551352685855036</v>
       </c>
       <c r="H3">
-        <v>0.1606655169286242</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1280655940869755</v>
+        <v>0.001168385271060668</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1896310690953698</v>
       </c>
       <c r="K3">
-        <v>1.033659689014172</v>
+        <v>0.1720669323810711</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7830482926433433</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5194694331045895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.737891862340966</v>
+      </c>
+      <c r="Q3">
+        <v>0.674669975679123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8688894369955449</v>
+        <v>0.6434522365731823</v>
       </c>
       <c r="C4">
-        <v>0.1441175119799851</v>
+        <v>0.1457265250312361</v>
       </c>
       <c r="D4">
-        <v>0.09087722780910212</v>
+        <v>0.08042615044904977</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.189837019028424</v>
+        <v>0.237860087216454</v>
       </c>
       <c r="G4">
-        <v>0.1138516451568563</v>
+        <v>0.1547443504353687</v>
       </c>
       <c r="H4">
-        <v>0.1654932121474957</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1347341206234418</v>
+        <v>0.0008958207034193144</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.191894607554346</v>
       </c>
       <c r="K4">
-        <v>0.9462575925434464</v>
+        <v>0.175768678697791</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7156965527102273</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5366426897719307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7436937013551841</v>
+      </c>
+      <c r="Q4">
+        <v>0.6784304358611593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8348902767286575</v>
+        <v>0.6166795236783003</v>
       </c>
       <c r="C5">
-        <v>0.1398090307007323</v>
+        <v>0.1423479342099085</v>
       </c>
       <c r="D5">
-        <v>0.08742788443598215</v>
+        <v>0.07747350686449295</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1899095231682111</v>
+        <v>0.2357992824781157</v>
       </c>
       <c r="G5">
-        <v>0.1153725664685261</v>
+        <v>0.1544775408474734</v>
       </c>
       <c r="H5">
-        <v>0.1675476474384183</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1375594183701043</v>
+        <v>0.0008684128231193355</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1927751934692239</v>
       </c>
       <c r="K5">
-        <v>0.9105887049882995</v>
+        <v>0.1771928233357123</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6882358828581516</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5440937798382848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.746458617507642</v>
+      </c>
+      <c r="Q5">
+        <v>0.6796454767005784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8292418586528072</v>
+        <v>0.6114960436694616</v>
       </c>
       <c r="C6">
-        <v>0.1390933140149855</v>
+        <v>0.1421602150230115</v>
       </c>
       <c r="D6">
-        <v>0.08685478413200087</v>
+        <v>0.07705314736337243</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1899303111226622</v>
+        <v>0.2352048447703403</v>
       </c>
       <c r="G6">
-        <v>0.1156327052782018</v>
+        <v>0.1542199225010386</v>
       </c>
       <c r="H6">
-        <v>0.1678939758797817</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1380349682603548</v>
+        <v>0.0009471099101947544</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1928088698016133</v>
       </c>
       <c r="K6">
-        <v>0.9046626476871609</v>
+        <v>0.1772655944076238</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6837151393059315</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5453578888309565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7472170375119802</v>
+      </c>
+      <c r="Q6">
+        <v>0.679158841080806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8684311028359559</v>
+        <v>0.6410863859359779</v>
       </c>
       <c r="C7">
-        <v>0.144059425879604</v>
+        <v>0.146699722381058</v>
       </c>
       <c r="D7">
-        <v>0.0908307312122858</v>
+        <v>0.08057784839922277</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.189837406478663</v>
+        <v>0.2371289421499689</v>
       </c>
       <c r="G7">
-        <v>0.1138716444404828</v>
+        <v>0.1541468344358172</v>
       </c>
       <c r="H7">
-        <v>0.16552056945687</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1347717915836215</v>
+        <v>0.001104833425916496</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1915911093230704</v>
       </c>
       <c r="K7">
-        <v>0.945776765478854</v>
+        <v>0.1753332298072809</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7154417138540339</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5367413664175658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7445319574402163</v>
+      </c>
+      <c r="Q7">
+        <v>0.6765262750024874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.040978126221034</v>
+        <v>0.7726693194805136</v>
       </c>
       <c r="C8">
-        <v>0.1659340973832144</v>
+        <v>0.1659328440791228</v>
       </c>
       <c r="D8">
-        <v>0.1083297608780356</v>
+        <v>0.09595270838799053</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.190741687357022</v>
+        <v>0.2470721534178004</v>
       </c>
       <c r="G8">
-        <v>0.1072424623332466</v>
+        <v>0.1550189800736206</v>
       </c>
       <c r="H8">
-        <v>0.1558185734277089</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1213280779257415</v>
+        <v>0.001792990185791155</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1869867760439092</v>
       </c>
       <c r="K8">
-        <v>1.126762389961186</v>
+        <v>0.1677061326554341</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8549134688209676</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5027399982879004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7333879909303249</v>
+      </c>
+      <c r="Q8">
+        <v>0.6690405685106953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.378312412340563</v>
+        <v>1.031064556965447</v>
       </c>
       <c r="C9">
-        <v>0.2087263745759742</v>
+        <v>0.2025655966211275</v>
       </c>
       <c r="D9">
-        <v>0.1425167929407962</v>
+        <v>0.1258142499207651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1976674769183298</v>
+        <v>0.2708742177112526</v>
       </c>
       <c r="G9">
-        <v>0.0987355061682571</v>
+        <v>0.1602408558375288</v>
       </c>
       <c r="H9">
-        <v>0.1397337722392535</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09864165281121462</v>
+        <v>0.003637658526131737</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1802780115628337</v>
       </c>
       <c r="K9">
-        <v>1.480448678871625</v>
+        <v>0.1553060804826032</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.126882378729363</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4516939561956974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7155618602375071</v>
+      </c>
+      <c r="Q9">
+        <v>0.6666177784433529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.625924068372001</v>
+        <v>1.217900902480153</v>
       </c>
       <c r="C10">
-        <v>0.2401470078727215</v>
+        <v>0.2306159894691717</v>
       </c>
       <c r="D10">
-        <v>0.1675956380934878</v>
+        <v>0.1479334588640029</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2063189089502657</v>
+        <v>0.2901153177505975</v>
       </c>
       <c r="G10">
-        <v>0.09560548071656427</v>
+        <v>0.1654833475644679</v>
       </c>
       <c r="H10">
-        <v>0.1298738268790096</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08444969740658248</v>
+        <v>0.005682489655600698</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1763560820835011</v>
       </c>
       <c r="K10">
-        <v>1.739960682506535</v>
+        <v>0.1471383237791315</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.32616413402323</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4248727821162461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7065999690257811</v>
+      </c>
+      <c r="Q10">
+        <v>0.6698980142466695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.738616468066283</v>
+        <v>1.299081417139234</v>
       </c>
       <c r="C11">
-        <v>0.2544479113923614</v>
+        <v>0.245292570473012</v>
       </c>
       <c r="D11">
-        <v>0.1790058416458891</v>
+        <v>0.1583490752124419</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2111259514169106</v>
+        <v>0.2982415333580022</v>
       </c>
       <c r="G11">
-        <v>0.09494726667491449</v>
+        <v>0.167331285508368</v>
       </c>
       <c r="H11">
-        <v>0.1258515094966768</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07858506624003958</v>
+        <v>0.007106358127772161</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1743484307542502</v>
       </c>
       <c r="K11">
-        <v>1.858043984910779</v>
+        <v>0.1429949807100765</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.416938885678746</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4152578108258922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7049418326151908</v>
+      </c>
+      <c r="Q11">
+        <v>0.6697769512546756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.781305855555217</v>
+        <v>1.331558163298638</v>
       </c>
       <c r="C12">
-        <v>0.2598652893526605</v>
+        <v>0.2499522660867655</v>
       </c>
       <c r="D12">
-        <v>0.1833276220157103</v>
+        <v>0.1621264533841753</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.213080115595254</v>
+        <v>0.3020035910217373</v>
       </c>
       <c r="G12">
-        <v>0.09481588292840826</v>
+        <v>0.168601976675312</v>
       </c>
       <c r="H12">
-        <v>0.124398320099921</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.07645409138085757</v>
+        <v>0.007487505850120257</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1738930324594605</v>
       </c>
       <c r="K12">
-        <v>1.902771661678401</v>
+        <v>0.1418414434272464</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.451204549884039</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4120122943606219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.703635131043292</v>
+      </c>
+      <c r="Q12">
+        <v>0.6715794544025471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.772111127188168</v>
+        <v>1.32492857348538</v>
       </c>
       <c r="C13">
-        <v>0.258698459548043</v>
+        <v>0.248760286170139</v>
       </c>
       <c r="D13">
-        <v>0.182396793271991</v>
+        <v>0.161278015397599</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2126531582329676</v>
+        <v>0.3013116090908099</v>
       </c>
       <c r="G13">
-        <v>0.09483880848757309</v>
+        <v>0.1684271734734608</v>
       </c>
       <c r="H13">
-        <v>0.1247081223311142</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.07690896059274888</v>
+        <v>0.007365081643937899</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1740421944801085</v>
       </c>
       <c r="K13">
-        <v>1.893138088152284</v>
+        <v>0.1421628117976397</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.443804466391015</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4126932971192332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7037453696309868</v>
+      </c>
+      <c r="Q13">
+        <v>0.6715079431266133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.74212819873361</v>
+        <v>1.301908253923926</v>
       </c>
       <c r="C14">
-        <v>0.2548935583674563</v>
+        <v>0.2455958710604449</v>
       </c>
       <c r="D14">
-        <v>0.1793613730044257</v>
+        <v>0.158645012900152</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2112839888820019</v>
+        <v>0.2986011922955214</v>
       </c>
       <c r="G14">
-        <v>0.09493404945519757</v>
+        <v>0.167477764101946</v>
       </c>
       <c r="H14">
-        <v>0.1257305322532076</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.07840792091581061</v>
+        <v>0.007120261924577598</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1743326369775886</v>
       </c>
       <c r="K14">
-        <v>1.861723468766996</v>
+        <v>0.1429310369081715</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.419749300676898</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4149827350026243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7047616443150275</v>
+      </c>
+      <c r="Q14">
+        <v>0.6700595918792374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.723765008479603</v>
+        <v>1.287087721692558</v>
       </c>
       <c r="C15">
-        <v>0.2525632253441046</v>
+        <v>0.2440297924528636</v>
       </c>
       <c r="D15">
-        <v>0.1775022412817862</v>
+        <v>0.1571011309608821</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2104630238234577</v>
+        <v>0.2967114813193774</v>
       </c>
       <c r="G15">
-        <v>0.09500797467753586</v>
+        <v>0.1667042453536638</v>
       </c>
       <c r="H15">
-        <v>0.1263660044153596</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.07933792288430652</v>
+        <v>0.007054836667403031</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1744115639876114</v>
       </c>
       <c r="K15">
-        <v>1.842482923147145</v>
+        <v>0.1432596459452569</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.405054673317778</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4164373041585065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7057253094791918</v>
+      </c>
+      <c r="Q15">
+        <v>0.6685578804759444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.618561055370719</v>
+        <v>1.206594590080869</v>
       </c>
       <c r="C16">
-        <v>0.2392126328232962</v>
+        <v>0.2327502860818953</v>
       </c>
       <c r="D16">
-        <v>0.166850050898887</v>
+        <v>0.1478269882283882</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2060230123810314</v>
+        <v>0.2875704975930091</v>
       </c>
       <c r="G16">
-        <v>0.09566455820841568</v>
+        <v>0.1636777963920437</v>
       </c>
       <c r="H16">
-        <v>0.1301462979532069</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08484526912485268</v>
+        <v>0.006224635849020999</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.175610339851616</v>
       </c>
       <c r="K16">
-        <v>1.732244916211329</v>
+        <v>0.1461641516383807</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.320572408553971</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4255551703845342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7094246757769227</v>
+      </c>
+      <c r="Q16">
+        <v>0.6644960376234224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.554040584097237</v>
+        <v>1.157136049016657</v>
       </c>
       <c r="C17">
-        <v>0.2310249857636251</v>
+        <v>0.2258612681619638</v>
       </c>
       <c r="D17">
-        <v>0.1603162257077742</v>
+        <v>0.1421429259199982</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2035283415583251</v>
+        <v>0.2821061410705212</v>
       </c>
       <c r="G17">
-        <v>0.09626885272923147</v>
+        <v>0.1619374117839172</v>
       </c>
       <c r="H17">
-        <v>0.1325863350801804</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08837864737229939</v>
+        <v>0.005760527396782678</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1764197518384591</v>
       </c>
       <c r="K17">
-        <v>1.664630502777896</v>
+        <v>0.1480216989519167</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.268728041914272</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4318274476874393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7119037588081127</v>
+      </c>
+      <c r="Q17">
+        <v>0.6624040583526636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.516934576220393</v>
+        <v>1.130467134449304</v>
       </c>
       <c r="C18">
-        <v>0.2263163181132768</v>
+        <v>0.2209711757336521</v>
       </c>
       <c r="D18">
-        <v>0.1565582563867736</v>
+        <v>0.1387018307975865</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2021749633615073</v>
+        <v>0.2796267292173411</v>
       </c>
       <c r="G18">
-        <v>0.09668800510767994</v>
+        <v>0.1614898294185778</v>
       </c>
       <c r="H18">
-        <v>0.1340331482561652</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09046631373475389</v>
+        <v>0.005280442606613533</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1771794427047837</v>
       </c>
       <c r="K18">
-        <v>1.625742802769508</v>
+        <v>0.149495092385294</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.23879723799908</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4356770300235837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7125938186068623</v>
+      </c>
+      <c r="Q18">
+        <v>0.6629899982764869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.504371661537732</v>
+        <v>1.1200378713514</v>
       </c>
       <c r="C19">
-        <v>0.2247221308688552</v>
+        <v>0.2200405057944863</v>
       </c>
       <c r="D19">
-        <v>0.1552858704224036</v>
+        <v>0.137670822271005</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2017304761103027</v>
+        <v>0.2783233840118058</v>
       </c>
       <c r="G19">
-        <v>0.09684198638754893</v>
+        <v>0.1609502035350019</v>
       </c>
       <c r="H19">
-        <v>0.1345303623860552</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0911825276588436</v>
+        <v>0.005293950465674158</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1772348323742605</v>
       </c>
       <c r="K19">
-        <v>1.612576267035678</v>
+        <v>0.1497070534714098</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.228741767185454</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4370212862423131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7134660736539686</v>
+      </c>
+      <c r="Q19">
+        <v>0.6619425022576166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.560908383077305</v>
+        <v>1.162545991460121</v>
       </c>
       <c r="C20">
-        <v>0.2318965014692793</v>
+        <v>0.226519732550031</v>
       </c>
       <c r="D20">
-        <v>0.1610117455464746</v>
+        <v>0.1427341896458074</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2037854092003926</v>
+        <v>0.2827305532626454</v>
       </c>
       <c r="G20">
-        <v>0.09619706149907259</v>
+        <v>0.1621585142177508</v>
       </c>
       <c r="H20">
-        <v>0.1323220764900519</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.08799674962506909</v>
+        <v>0.005790018177312284</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1763517805120145</v>
       </c>
       <c r="K20">
-        <v>1.671827877670921</v>
+        <v>0.1478506940481452</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.274239574168803</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4311345468598304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7115680014435313</v>
+      </c>
+      <c r="Q20">
+        <v>0.6627409201632162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.750934434678442</v>
+        <v>1.306641541442616</v>
       </c>
       <c r="C21">
-        <v>0.2560110903400528</v>
+        <v>0.247576086041974</v>
       </c>
       <c r="D21">
-        <v>0.1802529166985209</v>
+        <v>0.1596127699818624</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.211682444540223</v>
+        <v>0.2987121675311144</v>
       </c>
       <c r="G21">
-        <v>0.09490281203429163</v>
+        <v>0.1671845120299764</v>
       </c>
       <c r="H21">
-        <v>0.1254282986423618</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.07796516244110663</v>
+        <v>0.007424137551223176</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.173949481134656</v>
       </c>
       <c r="K21">
-        <v>1.870950310841067</v>
+        <v>0.1422855304430595</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.426930587842435</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4142993446550776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7053866899831434</v>
+      </c>
+      <c r="Q21">
+        <v>0.6686479299107617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.87522013081184</v>
+        <v>1.40313992306065</v>
       </c>
       <c r="C22">
-        <v>0.2717831032910993</v>
+        <v>0.2601110292489039</v>
       </c>
       <c r="D22">
-        <v>0.1928342459416825</v>
+        <v>0.1704173284647936</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2176280239709953</v>
+        <v>0.3105137113445977</v>
       </c>
       <c r="G22">
-        <v>0.09474787222993797</v>
+        <v>0.1715907890652701</v>
       </c>
       <c r="H22">
-        <v>0.1213323894381446</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.07193496252193032</v>
+        <v>0.008345434574534849</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1730055784937363</v>
       </c>
       <c r="K22">
-        <v>2.001162857265285</v>
+        <v>0.1394351368072169</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.526535620739935</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4056134911939608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.700876555430078</v>
+      </c>
+      <c r="Q22">
+        <v>0.6761927907307665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.808875356281078</v>
+        <v>1.354109453946592</v>
       </c>
       <c r="C23">
-        <v>0.2633639072803362</v>
+        <v>0.2521441622379825</v>
       </c>
       <c r="D23">
-        <v>0.1861185383458235</v>
+        <v>0.1644140966840553</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2143800488164516</v>
+        <v>0.3049918977950412</v>
       </c>
       <c r="G23">
-        <v>0.09476467170426872</v>
+        <v>0.1698890500832206</v>
       </c>
       <c r="H23">
-        <v>0.1234798087253992</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.07510361379827479</v>
+        <v>0.007576009844632914</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1738434657141852</v>
       </c>
       <c r="K23">
-        <v>1.931656425531827</v>
+        <v>0.1414376262300063</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.473237800374875</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4100291742779945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7020975289326046</v>
+      </c>
+      <c r="Q23">
+        <v>0.674244604918897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.557803490133722</v>
+        <v>1.163932024060244</v>
       </c>
       <c r="C24">
-        <v>0.2315024938938279</v>
+        <v>0.2242399353921201</v>
       </c>
       <c r="D24">
-        <v>0.1606973060231667</v>
+        <v>0.1420996109173984</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2036689377567171</v>
+        <v>0.2837450817132847</v>
       </c>
       <c r="G24">
-        <v>0.09622929545731296</v>
+        <v>0.1631431819089926</v>
       </c>
       <c r="H24">
-        <v>0.1324414109926089</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08816923065660198</v>
+        <v>0.005331662569812323</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1769485519190326</v>
       </c>
       <c r="K24">
-        <v>1.668573992634776</v>
+        <v>0.1487288843663617</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.271528571955116</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4314470504381589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7099990724742185</v>
+      </c>
+      <c r="Q24">
+        <v>0.6660744644824064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.28712519143437</v>
+        <v>0.9578129947275613</v>
       </c>
       <c r="C25">
-        <v>0.1971566696531966</v>
+        <v>0.194454624865358</v>
       </c>
       <c r="D25">
-        <v>0.1332780647312717</v>
+        <v>0.1180786472512096</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1951998830238217</v>
+        <v>0.2628197048127063</v>
       </c>
       <c r="G25">
-        <v>0.100517629686582</v>
+        <v>0.1574837025495199</v>
       </c>
       <c r="H25">
-        <v>0.1437537756846972</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1043617765533007</v>
+        <v>0.003413520332600228</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1813391651894136</v>
       </c>
       <c r="K25">
-        <v>1.38485824132627</v>
+        <v>0.1576696979386032</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.053640336661999</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4637141521796551</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.721364015667632</v>
+      </c>
+      <c r="Q25">
+        <v>0.6628482977462511</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8109598357490597</v>
+        <v>0.799001938516966</v>
       </c>
       <c r="C2">
-        <v>0.1697356500495601</v>
+        <v>0.1697892777403638</v>
       </c>
       <c r="D2">
-        <v>0.09984778784259873</v>
+        <v>0.1011875467699355</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.250953111982696</v>
+        <v>0.246092455567311</v>
       </c>
       <c r="G2">
-        <v>0.1562474041788775</v>
+        <v>0.1357986187782103</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001767363760962759</v>
+        <v>0.002015565701388944</v>
       </c>
       <c r="J2">
-        <v>0.1862947622135778</v>
+        <v>0.2203815461997891</v>
       </c>
       <c r="K2">
-        <v>0.1663863374626988</v>
+        <v>0.1604906358552416</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1045553177498046</v>
       </c>
       <c r="M2">
-        <v>0.8924417653248895</v>
+        <v>0.02910854290277243</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8921037362623849</v>
       </c>
       <c r="P2">
-        <v>0.7295405234768708</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.670276837913363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7320577925195835</v>
+      </c>
+      <c r="S2">
+        <v>0.6570610075680463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7074309037143678</v>
+        <v>0.7007196601014698</v>
       </c>
       <c r="C3">
-        <v>0.1548079662406394</v>
+        <v>0.1518730003627837</v>
       </c>
       <c r="D3">
-        <v>0.08781242387264854</v>
+        <v>0.0886230644563426</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2426159748669363</v>
+        <v>0.23887038223668</v>
       </c>
       <c r="G3">
-        <v>0.1551352685855036</v>
+        <v>0.135557239661658</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001168385271060668</v>
+        <v>0.001432063362419189</v>
       </c>
       <c r="J3">
-        <v>0.1896310690953698</v>
+        <v>0.2226838063008749</v>
       </c>
       <c r="K3">
-        <v>0.1720669323810711</v>
+        <v>0.1662527910344931</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1093208785738966</v>
       </c>
       <c r="M3">
-        <v>0.7830482926433433</v>
+        <v>0.03008483058545153</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7828095517124325</v>
       </c>
       <c r="P3">
-        <v>0.737891862340966</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.674669975679123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7366381615133548</v>
+      </c>
+      <c r="S3">
+        <v>0.6636175236168214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6434522365731823</v>
+        <v>0.639827158050025</v>
       </c>
       <c r="C4">
-        <v>0.1457265250312361</v>
+        <v>0.1410363987498897</v>
       </c>
       <c r="D4">
-        <v>0.08042615044904977</v>
+        <v>0.08092384712038836</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.237860087216454</v>
+        <v>0.2347329420552455</v>
       </c>
       <c r="G4">
-        <v>0.1547443504353687</v>
+        <v>0.1356968719494631</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0008958207034193144</v>
+        <v>0.001157305060452085</v>
       </c>
       <c r="J4">
-        <v>0.191894607554346</v>
+        <v>0.2242055173809199</v>
       </c>
       <c r="K4">
-        <v>0.175768678697791</v>
+        <v>0.1699586464596639</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1124772063568376</v>
       </c>
       <c r="M4">
-        <v>0.7156965527102273</v>
+        <v>0.03108228928813572</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7155114744189603</v>
       </c>
       <c r="P4">
-        <v>0.7436937013551841</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.6784304358611593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7401676024963919</v>
+      </c>
+      <c r="S4">
+        <v>0.6685147082075531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6166795236783003</v>
+        <v>0.6142772432610286</v>
       </c>
       <c r="C5">
-        <v>0.1423479342099085</v>
+        <v>0.1369712056841479</v>
       </c>
       <c r="D5">
-        <v>0.07747350686449295</v>
+        <v>0.07784721453381138</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2357992824781157</v>
+        <v>0.2329074458077258</v>
       </c>
       <c r="G5">
-        <v>0.1544775408474734</v>
+        <v>0.1356484686369299</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0008684128231193355</v>
+        <v>0.001138827641031348</v>
       </c>
       <c r="J5">
-        <v>0.1927751934692239</v>
+        <v>0.2247515907177764</v>
       </c>
       <c r="K5">
-        <v>0.1771928233357123</v>
+        <v>0.1713751107505566</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1137313625444492</v>
       </c>
       <c r="M5">
-        <v>0.6882358828581516</v>
+        <v>0.03157451716312565</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6880722061377611</v>
       </c>
       <c r="P5">
-        <v>0.746458617507642</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.6796454767005784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7420229571812271</v>
+      </c>
+      <c r="S5">
+        <v>0.6701460708161235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6114960436694616</v>
+        <v>0.6092933061104304</v>
       </c>
       <c r="C6">
-        <v>0.1421602150230115</v>
+        <v>0.1366817557412077</v>
       </c>
       <c r="D6">
-        <v>0.07705314736337243</v>
+        <v>0.07740710988974797</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2352048447703403</v>
+        <v>0.2323506156052453</v>
       </c>
       <c r="G6">
-        <v>0.1542199225010386</v>
+        <v>0.1354315323683366</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0009471099101947544</v>
+        <v>0.001235751043195954</v>
       </c>
       <c r="J6">
-        <v>0.1928088698016133</v>
+        <v>0.2247207820602029</v>
       </c>
       <c r="K6">
-        <v>0.1772655944076238</v>
+        <v>0.1714485089273374</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.113833988343286</v>
       </c>
       <c r="M6">
-        <v>0.6837151393059315</v>
+        <v>0.03164475665483302</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6835559276419758</v>
       </c>
       <c r="P6">
-        <v>0.7472170375119802</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.679158841080806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7426378340740598</v>
+      </c>
+      <c r="S6">
+        <v>0.66972622691015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6410863859359779</v>
+        <v>0.6371458382669744</v>
       </c>
       <c r="C7">
-        <v>0.146699722381058</v>
+        <v>0.1418029503435463</v>
       </c>
       <c r="D7">
-        <v>0.08057784839922277</v>
+        <v>0.0812034804216708</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2371289421499689</v>
+        <v>0.2335595383995646</v>
       </c>
       <c r="G7">
-        <v>0.1541468344358172</v>
+        <v>0.1366759547426035</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001104833425916496</v>
+        <v>0.001408363427632509</v>
       </c>
       <c r="J7">
-        <v>0.1915911093230704</v>
+        <v>0.2216071993923521</v>
       </c>
       <c r="K7">
-        <v>0.1753332298072809</v>
+        <v>0.1693834279811721</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1121128576399375</v>
       </c>
       <c r="M7">
-        <v>0.7154417138540339</v>
+        <v>0.03101097641001482</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7146105556025191</v>
       </c>
       <c r="P7">
-        <v>0.7445319574402163</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.6765262750024874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7413972075617252</v>
+      </c>
+      <c r="S7">
+        <v>0.6654306062101867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7726693194805136</v>
+        <v>0.7614500082950144</v>
       </c>
       <c r="C8">
-        <v>0.1659328440791228</v>
+        <v>0.1642191352798221</v>
       </c>
       <c r="D8">
-        <v>0.09595270838799053</v>
+        <v>0.09754070189481467</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2470721534178004</v>
+        <v>0.2411403743434484</v>
       </c>
       <c r="G8">
-        <v>0.1550189800736206</v>
+        <v>0.1401260732954697</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001792990185791155</v>
+        <v>0.002096330285682235</v>
       </c>
       <c r="J8">
-        <v>0.1869867760439092</v>
+        <v>0.2134531931268384</v>
       </c>
       <c r="K8">
-        <v>0.1677061326554341</v>
+        <v>0.1613920542104612</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1055648784008909</v>
       </c>
       <c r="M8">
-        <v>0.8549134688209676</v>
+        <v>0.02913731282305143</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8524387562004279</v>
       </c>
       <c r="P8">
-        <v>0.7333879909303249</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.6690405685106953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7359809655463394</v>
+      </c>
+      <c r="S8">
+        <v>0.6527219271878408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.031064556965447</v>
+        <v>1.005658838000187</v>
       </c>
       <c r="C9">
-        <v>0.2025655966211275</v>
+        <v>0.20849093347978</v>
       </c>
       <c r="D9">
-        <v>0.1258142499207651</v>
+        <v>0.1289146490813238</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2708742177112526</v>
+        <v>0.2613725940296163</v>
       </c>
       <c r="G9">
-        <v>0.1602408558375288</v>
+        <v>0.144582023585258</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003637658526131737</v>
+        <v>0.003772646019250203</v>
       </c>
       <c r="J9">
-        <v>0.1802780115628337</v>
+        <v>0.206797493852676</v>
       </c>
       <c r="K9">
-        <v>0.1553060804826032</v>
+        <v>0.1484078948037304</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09531978681654252</v>
       </c>
       <c r="M9">
-        <v>1.126882378729363</v>
+        <v>0.02887937825892273</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.123449373053518</v>
       </c>
       <c r="P9">
-        <v>0.7155618602375071</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.6666177784433529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7282623901397685</v>
+      </c>
+      <c r="S9">
+        <v>0.6427548551389606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.217900902480153</v>
+        <v>1.17938766266505</v>
       </c>
       <c r="C10">
-        <v>0.2306159894691717</v>
+        <v>0.2411701922733158</v>
       </c>
       <c r="D10">
-        <v>0.1479334588640029</v>
+        <v>0.1529891322401937</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2901153177505975</v>
+        <v>0.2750538519220811</v>
       </c>
       <c r="G10">
-        <v>0.1654833475644679</v>
+        <v>0.1588436266250497</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005682489655600698</v>
+        <v>0.005619933510265795</v>
       </c>
       <c r="J10">
-        <v>0.1763560820835011</v>
+        <v>0.1910035476378482</v>
       </c>
       <c r="K10">
-        <v>0.1471383237791315</v>
+        <v>0.1388094045176889</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08859250099035165</v>
       </c>
       <c r="M10">
-        <v>1.32616413402323</v>
+        <v>0.03022006080007422</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.318005399122143</v>
       </c>
       <c r="P10">
-        <v>0.7065999690257811</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.6698980142466695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7296151485244167</v>
+      </c>
+      <c r="S10">
+        <v>0.632740896435493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.299081417139234</v>
+        <v>1.250955175507727</v>
       </c>
       <c r="C11">
-        <v>0.245292570473012</v>
+        <v>0.2556043575497995</v>
       </c>
       <c r="D11">
-        <v>0.1583490752124419</v>
+        <v>0.1657261409963979</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2982415333580022</v>
+        <v>0.2760585609658364</v>
       </c>
       <c r="G11">
-        <v>0.167331285508368</v>
+        <v>0.183007066837618</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.007106358127772161</v>
+        <v>0.006978413632457325</v>
       </c>
       <c r="J11">
-        <v>0.1743484307542502</v>
+        <v>0.1682692646970132</v>
       </c>
       <c r="K11">
-        <v>0.1429949807100765</v>
+        <v>0.1327134952236815</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0852153126785149</v>
       </c>
       <c r="M11">
-        <v>1.416938885678746</v>
+        <v>0.03032210864104989</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.399618572891853</v>
       </c>
       <c r="P11">
-        <v>0.7049418326151908</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.6697769512546756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7377481439630458</v>
+      </c>
+      <c r="S11">
+        <v>0.6147460286713482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.331558163298638</v>
+        <v>1.279285231203403</v>
       </c>
       <c r="C12">
-        <v>0.2499522660867655</v>
+        <v>0.2597992310513888</v>
       </c>
       <c r="D12">
-        <v>0.1621264533841753</v>
+        <v>0.1705695419906164</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3020035910217373</v>
+        <v>0.2765156306590768</v>
       </c>
       <c r="G12">
-        <v>0.168601976675312</v>
+        <v>0.1956958230236552</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.007487505850120257</v>
+        <v>0.007283070974423822</v>
       </c>
       <c r="J12">
-        <v>0.1738930324594605</v>
+        <v>0.1599170175087998</v>
       </c>
       <c r="K12">
-        <v>0.1418414434272464</v>
+        <v>0.1306130320917411</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08406615546438179</v>
       </c>
       <c r="M12">
-        <v>1.451204549884039</v>
+        <v>0.03046472259932465</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.429501715606477</v>
       </c>
       <c r="P12">
-        <v>0.703635131043292</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6715794544025471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7407812803641534</v>
+      </c>
+      <c r="S12">
+        <v>0.6082051236703734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.32492857348538</v>
+        <v>1.273565300309798</v>
       </c>
       <c r="C13">
-        <v>0.248760286170139</v>
+        <v>0.2587105934032792</v>
       </c>
       <c r="D13">
-        <v>0.161278015397599</v>
+        <v>0.1694815156093341</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3013116090908099</v>
+        <v>0.2765565249355006</v>
       </c>
       <c r="G13">
-        <v>0.1684271734734608</v>
+        <v>0.1929290805264756</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.007365081643937899</v>
+        <v>0.007168053783802364</v>
       </c>
       <c r="J13">
-        <v>0.1740421944801085</v>
+        <v>0.1617022858177997</v>
       </c>
       <c r="K13">
-        <v>0.1421628117976397</v>
+        <v>0.1311349082943405</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0843325183528032</v>
       </c>
       <c r="M13">
-        <v>1.443804466391015</v>
+        <v>0.03046548777405889</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.423086675009955</v>
       </c>
       <c r="P13">
-        <v>0.7037453696309868</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6715079431266133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7399055288065952</v>
+      </c>
+      <c r="S13">
+        <v>0.6099725098192863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.301908253923926</v>
+        <v>1.253448557607953</v>
       </c>
       <c r="C14">
-        <v>0.2455958710604449</v>
+        <v>0.2558709657131857</v>
       </c>
       <c r="D14">
-        <v>0.158645012900152</v>
+        <v>0.1661053688487186</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2986011922955214</v>
+        <v>0.2761561383927713</v>
       </c>
       <c r="G14">
-        <v>0.167477764101946</v>
+        <v>0.184033070300643</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.007120261924577598</v>
+        <v>0.006982136663864047</v>
       </c>
       <c r="J14">
-        <v>0.1743326369775886</v>
+        <v>0.1675808065096156</v>
       </c>
       <c r="K14">
-        <v>0.1429310369081715</v>
+        <v>0.1325706658127999</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08512911540997248</v>
       </c>
       <c r="M14">
-        <v>1.419749300676898</v>
+        <v>0.03034714543311878</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.40208689989089</v>
       </c>
       <c r="P14">
-        <v>0.7047616443150275</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6700595918792374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7379029992895241</v>
+      </c>
+      <c r="S14">
+        <v>0.6143626946189471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.287087721692558</v>
+        <v>1.240352103926142</v>
       </c>
       <c r="C15">
-        <v>0.2440297924528636</v>
+        <v>0.2544856402929412</v>
       </c>
       <c r="D15">
-        <v>0.1571011309608821</v>
+        <v>0.1641338110939898</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2967114813193774</v>
+        <v>0.2756128017895776</v>
       </c>
       <c r="G15">
-        <v>0.1667042453536638</v>
+        <v>0.1787866520710963</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.007054836667403031</v>
+        <v>0.00697100561152908</v>
       </c>
       <c r="J15">
-        <v>0.1744115639876114</v>
+        <v>0.1711885596835074</v>
       </c>
       <c r="K15">
-        <v>0.1432596459452569</v>
+        <v>0.1333052921146898</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08557760181732732</v>
       </c>
       <c r="M15">
-        <v>1.405054673317778</v>
+        <v>0.03021200411575897</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.389143999833323</v>
       </c>
       <c r="P15">
-        <v>0.7057253094791918</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6685578804759444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7371439556187696</v>
+      </c>
+      <c r="S15">
+        <v>0.6162827082539337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.206594590080869</v>
+        <v>1.168714076332947</v>
       </c>
       <c r="C16">
-        <v>0.2327502860818953</v>
+        <v>0.2434837060676927</v>
       </c>
       <c r="D16">
-        <v>0.1478269882283882</v>
+        <v>0.15276999771595</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2875704975930091</v>
+        <v>0.2729516005373469</v>
       </c>
       <c r="G16">
-        <v>0.1636777963920437</v>
+        <v>0.1559001114553951</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006224635849020999</v>
+        <v>0.006314926162111156</v>
       </c>
       <c r="J16">
-        <v>0.175610339851616</v>
+        <v>0.1916502104256992</v>
       </c>
       <c r="K16">
-        <v>0.1461641516383807</v>
+        <v>0.1380713187495459</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0884220590270326</v>
       </c>
       <c r="M16">
-        <v>1.320572408553971</v>
+        <v>0.029738841595492</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.312897675133684</v>
       </c>
       <c r="P16">
-        <v>0.7094246757769227</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6644960376234224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7321134826945013</v>
+      </c>
+      <c r="S16">
+        <v>0.6285624924002207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.157136049016657</v>
+        <v>1.123866860683847</v>
       </c>
       <c r="C17">
-        <v>0.2258612681619638</v>
+        <v>0.2362293084630664</v>
       </c>
       <c r="D17">
-        <v>0.1421429259199982</v>
+        <v>0.1461203346839</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2821061410705212</v>
+        <v>0.2704504625970614</v>
       </c>
       <c r="G17">
-        <v>0.1619374117839172</v>
+        <v>0.1463403431114898</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005760527396782678</v>
+        <v>0.005943992033333956</v>
       </c>
       <c r="J17">
-        <v>0.1764197518384591</v>
+        <v>0.2021223835880264</v>
       </c>
       <c r="K17">
-        <v>0.1480216989519167</v>
+        <v>0.1407721750268536</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09016771211609331</v>
       </c>
       <c r="M17">
-        <v>1.268728041914272</v>
+        <v>0.02940654682572585</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.264565014418224</v>
       </c>
       <c r="P17">
-        <v>0.7119037588081127</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6624040583526636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7303630055474812</v>
+      </c>
+      <c r="S17">
+        <v>0.6338945813987351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.130467134449304</v>
+        <v>1.099545678120137</v>
       </c>
       <c r="C18">
-        <v>0.2209711757336521</v>
+        <v>0.2308751297998413</v>
       </c>
       <c r="D18">
-        <v>0.1387018307975865</v>
+        <v>0.14222985391973</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2796267292173411</v>
+        <v>0.2693063062654275</v>
       </c>
       <c r="G18">
-        <v>0.1614898294185778</v>
+        <v>0.1427636604137987</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005280442606613533</v>
+        <v>0.005460159087051331</v>
       </c>
       <c r="J18">
-        <v>0.1771794427047837</v>
+        <v>0.2071756445573882</v>
       </c>
       <c r="K18">
-        <v>0.149495092385294</v>
+        <v>0.1425905382760551</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09129787449144189</v>
       </c>
       <c r="M18">
-        <v>1.23879723799908</v>
+        <v>0.02934129901919391</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.236111709523016</v>
       </c>
       <c r="P18">
-        <v>0.7125938186068623</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6629899982764869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.728947340579154</v>
+      </c>
+      <c r="S18">
+        <v>0.6377683112885393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.1200378713514</v>
+        <v>1.089876918797273</v>
       </c>
       <c r="C19">
-        <v>0.2200405057944863</v>
+        <v>0.2298053768428616</v>
       </c>
       <c r="D19">
-        <v>0.137670822271005</v>
+        <v>0.1410673617230742</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2783233840118058</v>
+        <v>0.2684045889785978</v>
       </c>
       <c r="G19">
-        <v>0.1609502035350019</v>
+        <v>0.141392221380471</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005293950465674158</v>
+        <v>0.00551154426685585</v>
       </c>
       <c r="J19">
-        <v>0.1772348323742605</v>
+        <v>0.2084473223144911</v>
       </c>
       <c r="K19">
-        <v>0.1497070534714098</v>
+        <v>0.1429261644861715</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09157818164046105</v>
       </c>
       <c r="M19">
-        <v>1.228741767185454</v>
+        <v>0.02921402169871001</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.226468716761417</v>
       </c>
       <c r="P19">
-        <v>0.7134660736539686</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6619425022576166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7292112181606356</v>
+      </c>
+      <c r="S19">
+        <v>0.637721701597485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.162545991460121</v>
+        <v>1.128814520048138</v>
       </c>
       <c r="C20">
-        <v>0.226519732550031</v>
+        <v>0.2369414301194439</v>
       </c>
       <c r="D20">
-        <v>0.1427341896458074</v>
+        <v>0.1468026444364057</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2827305532626454</v>
+        <v>0.2707956850129278</v>
       </c>
       <c r="G20">
-        <v>0.1621585142177508</v>
+        <v>0.1472463195924547</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.005790018177312284</v>
+        <v>0.005959855704754879</v>
       </c>
       <c r="J20">
-        <v>0.1763517805120145</v>
+        <v>0.201145982700119</v>
       </c>
       <c r="K20">
-        <v>0.1478506940481452</v>
+        <v>0.1405198834377721</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08999222458043388</v>
       </c>
       <c r="M20">
-        <v>1.274239574168803</v>
+        <v>0.02945376042353942</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.269758972392481</v>
       </c>
       <c r="P20">
-        <v>0.7115680014435313</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.6627409201632162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7304327560171444</v>
+      </c>
+      <c r="S20">
+        <v>0.6335328502688924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.306641541442616</v>
+        <v>1.256130523675836</v>
       </c>
       <c r="C21">
-        <v>0.247576086041974</v>
+        <v>0.2569304466836968</v>
       </c>
       <c r="D21">
-        <v>0.1596127699818624</v>
+        <v>0.1677907406082397</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2987121675311144</v>
+        <v>0.2740379470519656</v>
       </c>
       <c r="G21">
-        <v>0.1671845120299764</v>
+        <v>0.192675973342709</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.007424137551223176</v>
+        <v>0.00731145876856143</v>
       </c>
       <c r="J21">
-        <v>0.173949481134656</v>
+        <v>0.1613595119039886</v>
       </c>
       <c r="K21">
-        <v>0.1422855304430595</v>
+        <v>0.1313238906474279</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.084633857473003</v>
       </c>
       <c r="M21">
-        <v>1.426930587842435</v>
+        <v>0.03000411488972432</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.405946403971114</v>
       </c>
       <c r="P21">
-        <v>0.7053866899831434</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.6686479299107617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.741226945835713</v>
+      </c>
+      <c r="S21">
+        <v>0.6072890935439403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.40313992306065</v>
+        <v>1.340828650732135</v>
       </c>
       <c r="C22">
-        <v>0.2601110292489039</v>
+        <v>0.2683546172169855</v>
       </c>
       <c r="D22">
-        <v>0.1704173284647936</v>
+        <v>0.1815719630281052</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3105137113445977</v>
+        <v>0.2766552916666285</v>
       </c>
       <c r="G22">
-        <v>0.1715907890652701</v>
+        <v>0.2302178964105295</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.008345434574534849</v>
+        <v>0.007951376281990719</v>
       </c>
       <c r="J22">
-        <v>0.1730055784937363</v>
+        <v>0.1445051936284436</v>
       </c>
       <c r="K22">
-        <v>0.1394351368072169</v>
+        <v>0.1258147303229364</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08159681586438516</v>
       </c>
       <c r="M22">
-        <v>1.526535620739935</v>
+        <v>0.03071520312788678</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.493483208659569</v>
       </c>
       <c r="P22">
-        <v>0.700876555430078</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.6761927907307665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7489315441281477</v>
+      </c>
+      <c r="S22">
+        <v>0.5917157150762193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.354109453946592</v>
+        <v>1.298993527431236</v>
       </c>
       <c r="C23">
-        <v>0.2521441622379825</v>
+        <v>0.2615576585679804</v>
       </c>
       <c r="D23">
-        <v>0.1644140966840553</v>
+        <v>0.173595687423699</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3049918977950412</v>
+        <v>0.2771742906810104</v>
       </c>
       <c r="G23">
-        <v>0.1698890500832206</v>
+        <v>0.205368832654635</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.007576009844632914</v>
+        <v>0.007279818505273816</v>
       </c>
       <c r="J23">
-        <v>0.1738434657141852</v>
+        <v>0.1549464284171602</v>
       </c>
       <c r="K23">
-        <v>0.1414376262300063</v>
+        <v>0.1294998340370643</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08341324799047189</v>
       </c>
       <c r="M23">
-        <v>1.473237800374875</v>
+        <v>0.03067572596142476</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.448442871452102</v>
       </c>
       <c r="P23">
-        <v>0.7020975289326046</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.674244604918897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7421655047908757</v>
+      </c>
+      <c r="S23">
+        <v>0.6049404187515677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.163932024060244</v>
+        <v>1.130370995061327</v>
       </c>
       <c r="C24">
-        <v>0.2242399353921201</v>
+        <v>0.234502264806693</v>
       </c>
       <c r="D24">
-        <v>0.1420996109173984</v>
+        <v>0.1461190850281326</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2837450817132847</v>
+        <v>0.2719086129699377</v>
       </c>
       <c r="G24">
-        <v>0.1631431819089926</v>
+        <v>0.1479087188659705</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.005331662569812323</v>
+        <v>0.005404186542952161</v>
       </c>
       <c r="J24">
-        <v>0.1769485519190326</v>
+        <v>0.2021135016887499</v>
       </c>
       <c r="K24">
-        <v>0.1487288843663617</v>
+        <v>0.1413616447210906</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09034024388946005</v>
       </c>
       <c r="M24">
-        <v>1.271528571955116</v>
+        <v>0.02972430729386488</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.267187353271936</v>
       </c>
       <c r="P24">
-        <v>0.7099990724742185</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.6660744644824064</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7285560629933059</v>
+      </c>
+      <c r="S24">
+        <v>0.6370517325413232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9578129947275613</v>
+        <v>0.9368710110433938</v>
       </c>
       <c r="C25">
-        <v>0.194454624865358</v>
+        <v>0.1986984212021241</v>
       </c>
       <c r="D25">
-        <v>0.1180786472512096</v>
+        <v>0.1205785862645286</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2628197048127063</v>
+        <v>0.2549952571273337</v>
       </c>
       <c r="G25">
-        <v>0.1574837025495199</v>
+        <v>0.1397805576957012</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003413520332600228</v>
+        <v>0.003695376158169061</v>
       </c>
       <c r="J25">
-        <v>0.1813391651894136</v>
+        <v>0.2109623728175265</v>
       </c>
       <c r="K25">
-        <v>0.1576696979386032</v>
+        <v>0.1512247392858548</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09765007186919128</v>
       </c>
       <c r="M25">
-        <v>1.053640336661999</v>
+        <v>0.02843588604969849</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.051429935824984</v>
       </c>
       <c r="P25">
-        <v>0.721364015667632</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.6628482977462511</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7307825767702028</v>
+      </c>
+      <c r="S25">
+        <v>0.6429597043600523</v>
       </c>
     </row>
   </sheetData>
